--- a/script_data/data.xlsx
+++ b/script_data/data.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sihliu/Documents/Sihang/furfural/3_thermal_hydro/figs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84667CA1-9CA6-4242-9F9F-EB9DD41FBB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC235A4-79FC-394E-A0CE-1E2257332D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="2780" windowWidth="27240" windowHeight="16440" xr2:uid="{5B534ED9-8C94-9C41-B3C3-3E29B9B4C75E}"/>
+    <workbookView xWindow="1420" yWindow="1460" windowWidth="27240" windowHeight="16440" xr2:uid="{5B534ED9-8C94-9C41-B3C3-3E29B9B4C75E}"/>
   </bookViews>
   <sheets>
-    <sheet name="scaling" sheetId="1" r:id="rId1"/>
-    <sheet name="FCHOH_FCH2O" sheetId="2" r:id="rId2"/>
-    <sheet name="pathway" sheetId="3" r:id="rId3"/>
+    <sheet name="raw_energy" sheetId="4" r:id="rId1"/>
+    <sheet name="TS_freq" sheetId="5" r:id="rId2"/>
+    <sheet name="FCHOH_FCH2O" sheetId="2" r:id="rId3"/>
+    <sheet name="scaling" sheetId="1" r:id="rId4"/>
+    <sheet name="pathway" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="881">
   <si>
     <t>surfaces</t>
   </si>
@@ -136,6 +138,2550 @@
   </si>
   <si>
     <t>Eads_H</t>
+  </si>
+  <si>
+    <t>H*</t>
+  </si>
+  <si>
+    <t>FCHO*</t>
+  </si>
+  <si>
+    <t>FCHOH*</t>
+  </si>
+  <si>
+    <t>FCH2O*</t>
+  </si>
+  <si>
+    <t>FCH2OH*</t>
+  </si>
+  <si>
+    <t>FCHO-H</t>
+  </si>
+  <si>
+    <t>FCH-HO</t>
+  </si>
+  <si>
+    <t>FCHOH-H</t>
+  </si>
+  <si>
+    <t>FCH2O-H</t>
+  </si>
+  <si>
+    <t>H-H</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>FCHO</t>
+  </si>
+  <si>
+    <t>FCH2OH</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Cu_H-H</t>
+  </si>
+  <si>
+    <t>Cu_FCHO-H</t>
+  </si>
+  <si>
+    <t>Cu_FCH-HO</t>
+  </si>
+  <si>
+    <t>Cu_FCHOH-H</t>
+  </si>
+  <si>
+    <t>Cu_FCH2O-H</t>
+  </si>
+  <si>
+    <t>mode  1 :  1858.699954  cm-1</t>
+  </si>
+  <si>
+    <t>mode  2 :  854.949893  cm-1</t>
+  </si>
+  <si>
+    <t>mode  3 :  639.359627  cm-1</t>
+  </si>
+  <si>
+    <t>mode  4 :  271.516268  cm-1</t>
+  </si>
+  <si>
+    <t>mode  5 :  175.943195  cm-1</t>
+  </si>
+  <si>
+    <t>i-mode 6 :  309.236123  cm-1</t>
+  </si>
+  <si>
+    <t>mode  1 :  3200.714429  cm-1</t>
+  </si>
+  <si>
+    <t>mode  2 :  3186.568451  cm-1</t>
+  </si>
+  <si>
+    <t>mode  3 :  3170.485257  cm-1</t>
+  </si>
+  <si>
+    <t>mode  4 :  3004.280653  cm-1</t>
+  </si>
+  <si>
+    <t>mode  5 :  1538.383694  cm-1</t>
+  </si>
+  <si>
+    <t>mode  6 :  1483.296218  cm-1</t>
+  </si>
+  <si>
+    <t>mode  7 :  1439.739649  cm-1</t>
+  </si>
+  <si>
+    <t>mode  8 :  1366.872984  cm-1</t>
+  </si>
+  <si>
+    <t>mode  9 :  1295.948209  cm-1</t>
+  </si>
+  <si>
+    <t>mode  10 :  1242.270704  cm-1</t>
+  </si>
+  <si>
+    <t>mode  11 :  1167.997537  cm-1</t>
+  </si>
+  <si>
+    <t>mode  12 :  1139.708730  cm-1</t>
+  </si>
+  <si>
+    <t>mode  13 :  1083.630369  cm-1</t>
+  </si>
+  <si>
+    <t>mode  14 :  1009.393722  cm-1</t>
+  </si>
+  <si>
+    <t>mode  15 :  939.122998  cm-1</t>
+  </si>
+  <si>
+    <t>mode  16 :  899.259666  cm-1</t>
+  </si>
+  <si>
+    <t>mode  17 :  868.597442  cm-1</t>
+  </si>
+  <si>
+    <t>mode  18 :  853.059314  cm-1</t>
+  </si>
+  <si>
+    <t>mode  19 :  803.809478  cm-1</t>
+  </si>
+  <si>
+    <t>mode  20 :  762.639294  cm-1</t>
+  </si>
+  <si>
+    <t>mode  21 :  737.607193  cm-1</t>
+  </si>
+  <si>
+    <t>mode  22 :  720.886001  cm-1</t>
+  </si>
+  <si>
+    <t>mode  23 :  603.881143  cm-1</t>
+  </si>
+  <si>
+    <t>mode  24 :  570.410466  cm-1</t>
+  </si>
+  <si>
+    <t>mode  25 :  534.121171  cm-1</t>
+  </si>
+  <si>
+    <t>mode  26 :  475.281901  cm-1</t>
+  </si>
+  <si>
+    <t>mode  27 :  321.281209  cm-1</t>
+  </si>
+  <si>
+    <t>mode  28 :  217.131255  cm-1</t>
+  </si>
+  <si>
+    <t>mode  29 :  199.986222  cm-1</t>
+  </si>
+  <si>
+    <t>mode  30 :  144.054719  cm-1</t>
+  </si>
+  <si>
+    <t>mode  31 :  116.455614  cm-1</t>
+  </si>
+  <si>
+    <t>mode  32 :  59.821533  cm-1</t>
+  </si>
+  <si>
+    <t>mode  33 :  43.547611  cm-1</t>
+  </si>
+  <si>
+    <t>mode  34 :  28.410918  cm-1</t>
+  </si>
+  <si>
+    <t>mode  35 :  13.066874  cm-1</t>
+  </si>
+  <si>
+    <t>i-mode 36 :  1186.999330  cm-1</t>
+  </si>
+  <si>
+    <t>mode  1 :  3220.394074  cm-1</t>
+  </si>
+  <si>
+    <t>mode  2 :  3181.420451  cm-1</t>
+  </si>
+  <si>
+    <t>mode  3 :  3159.725049  cm-1</t>
+  </si>
+  <si>
+    <t>mode  4 :  2883.620367  cm-1</t>
+  </si>
+  <si>
+    <t>mode  5 :  1692.960943  cm-1</t>
+  </si>
+  <si>
+    <t>mode  6 :  1519.200665  cm-1</t>
+  </si>
+  <si>
+    <t>mode  7 :  1462.735036  cm-1</t>
+  </si>
+  <si>
+    <t>mode  8 :  1384.536796  cm-1</t>
+  </si>
+  <si>
+    <t>mode  9 :  1350.309613  cm-1</t>
+  </si>
+  <si>
+    <t>mode  10 :  1273.512726  cm-1</t>
+  </si>
+  <si>
+    <t>mode  11 :  1196.878801  cm-1</t>
+  </si>
+  <si>
+    <t>mode  12 :  1174.464301  cm-1</t>
+  </si>
+  <si>
+    <t>mode  13 :  1157.101687  cm-1</t>
+  </si>
+  <si>
+    <t>mode  14 :  1125.312504  cm-1</t>
+  </si>
+  <si>
+    <t>mode  15 :  1070.584918  cm-1</t>
+  </si>
+  <si>
+    <t>mode  16 :  1006.705957  cm-1</t>
+  </si>
+  <si>
+    <t>mode  17 :  986.138166  cm-1</t>
+  </si>
+  <si>
+    <t>mode  18 :  919.804649  cm-1</t>
+  </si>
+  <si>
+    <t>mode  19 :  879.708617  cm-1</t>
+  </si>
+  <si>
+    <t>mode  20 :  867.117971  cm-1</t>
+  </si>
+  <si>
+    <t>mode  21 :  844.450705  cm-1</t>
+  </si>
+  <si>
+    <t>mode  22 :  793.950019  cm-1</t>
+  </si>
+  <si>
+    <t>mode  23 :  721.666340  cm-1</t>
+  </si>
+  <si>
+    <t>mode  24 :  684.316290  cm-1</t>
+  </si>
+  <si>
+    <t>mode  25 :  594.797027  cm-1</t>
+  </si>
+  <si>
+    <t>mode  26 :  587.246222  cm-1</t>
+  </si>
+  <si>
+    <t>mode  27 :  457.603273  cm-1</t>
+  </si>
+  <si>
+    <t>mode  28 :  317.253911  cm-1</t>
+  </si>
+  <si>
+    <t>mode  29 :  237.138764  cm-1</t>
+  </si>
+  <si>
+    <t>mode  30 :  223.623470  cm-1</t>
+  </si>
+  <si>
+    <t>mode  31 :  185.898334  cm-1</t>
+  </si>
+  <si>
+    <t>mode  32 :  125.044618  cm-1</t>
+  </si>
+  <si>
+    <t>mode  33 :  82.046011  cm-1</t>
+  </si>
+  <si>
+    <t>mode  34 :  65.208819  cm-1</t>
+  </si>
+  <si>
+    <t>mode  35 :  31.622801  cm-1</t>
+  </si>
+  <si>
+    <t>mode  1 :  3211.282472  cm-1</t>
+  </si>
+  <si>
+    <t>mode  2 :  3188.310252  cm-1</t>
+  </si>
+  <si>
+    <t>mode  3 :  3161.229026  cm-1</t>
+  </si>
+  <si>
+    <t>mode  4 :  3135.274200  cm-1</t>
+  </si>
+  <si>
+    <t>mode  5 :  3030.673459  cm-1</t>
+  </si>
+  <si>
+    <t>mode  6 :  1548.147491  cm-1</t>
+  </si>
+  <si>
+    <t>mode  7 :  1448.973132  cm-1</t>
+  </si>
+  <si>
+    <t>mode  8 :  1393.636263  cm-1</t>
+  </si>
+  <si>
+    <t>mode  9 :  1360.211899  cm-1</t>
+  </si>
+  <si>
+    <t>mode  10 :  1308.394530  cm-1</t>
+  </si>
+  <si>
+    <t>mode  11 :  1243.279998  cm-1</t>
+  </si>
+  <si>
+    <t>mode  12 :  1159.153013  cm-1</t>
+  </si>
+  <si>
+    <t>mode  13 :  1141.450864  cm-1</t>
+  </si>
+  <si>
+    <t>mode  14 :  1135.827076  cm-1</t>
+  </si>
+  <si>
+    <t>mode  15 :  1114.542129  cm-1</t>
+  </si>
+  <si>
+    <t>mode  16 :  1084.144427  cm-1</t>
+  </si>
+  <si>
+    <t>mode  17 :  1013.522860  cm-1</t>
+  </si>
+  <si>
+    <t>mode  18 :  894.205155  cm-1</t>
+  </si>
+  <si>
+    <t>mode  19 :  875.941460  cm-1</t>
+  </si>
+  <si>
+    <t>mode  20 :  863.176548  cm-1</t>
+  </si>
+  <si>
+    <t>mode  21 :  849.415731  cm-1</t>
+  </si>
+  <si>
+    <t>mode  22 :  834.648535  cm-1</t>
+  </si>
+  <si>
+    <t>mode  23 :  765.941888  cm-1</t>
+  </si>
+  <si>
+    <t>mode  24 :  714.423615  cm-1</t>
+  </si>
+  <si>
+    <t>mode  25 :  706.366086  cm-1</t>
+  </si>
+  <si>
+    <t>mode  26 :  700.581900  cm-1</t>
+  </si>
+  <si>
+    <t>mode  27 :  614.610883  cm-1</t>
+  </si>
+  <si>
+    <t>mode  28 :  557.539262  cm-1</t>
+  </si>
+  <si>
+    <t>mode  29 :  501.164325  cm-1</t>
+  </si>
+  <si>
+    <t>mode  30 :  482.142197  cm-1</t>
+  </si>
+  <si>
+    <t>mode  31 :  305.918860  cm-1</t>
+  </si>
+  <si>
+    <t>mode  32 :  200.964637  cm-1</t>
+  </si>
+  <si>
+    <t>mode  33 :  189.723125  cm-1</t>
+  </si>
+  <si>
+    <t>mode  34 :  143.307851  cm-1</t>
+  </si>
+  <si>
+    <t>mode  35 :  103.405988  cm-1</t>
+  </si>
+  <si>
+    <t>mode  36 :  80.509257  cm-1</t>
+  </si>
+  <si>
+    <t>mode  37 :  36.505135  cm-1</t>
+  </si>
+  <si>
+    <t>mode  38 :  30.181909  cm-1</t>
+  </si>
+  <si>
+    <t>i-mode  39 :  86.313646  cm-1</t>
+  </si>
+  <si>
+    <t>i-mode 36 :  517.414291  cm-1</t>
+  </si>
+  <si>
+    <t>mode  1 :  3210.602892  cm-1</t>
+  </si>
+  <si>
+    <t>mode  2 :  3180.665916  cm-1</t>
+  </si>
+  <si>
+    <t>mode  3 :  3170.702073  cm-1</t>
+  </si>
+  <si>
+    <t>mode  4 :  2910.454422  cm-1</t>
+  </si>
+  <si>
+    <t>mode  5 :  2876.678789  cm-1</t>
+  </si>
+  <si>
+    <t>mode  6 :  1532.945042  cm-1</t>
+  </si>
+  <si>
+    <t>mode  7 :  1458.898294  cm-1</t>
+  </si>
+  <si>
+    <t>mode  8 :  1415.675593  cm-1</t>
+  </si>
+  <si>
+    <t>mode  9 :  1369.983136  cm-1</t>
+  </si>
+  <si>
+    <t>mode  10 :  1315.923042  cm-1</t>
+  </si>
+  <si>
+    <t>mode  11 :  1223.624022  cm-1</t>
+  </si>
+  <si>
+    <t>mode  12 :  1206.081698  cm-1</t>
+  </si>
+  <si>
+    <t>mode  13 :  1149.837123  cm-1</t>
+  </si>
+  <si>
+    <t>mode  14 :  1133.672089  cm-1</t>
+  </si>
+  <si>
+    <t>mode  15 :  1076.314080  cm-1</t>
+  </si>
+  <si>
+    <t>mode  16 :  1018.969604  cm-1</t>
+  </si>
+  <si>
+    <t>mode  17 :  998.737706  cm-1</t>
+  </si>
+  <si>
+    <t>mode  18 :  953.163695  cm-1</t>
+  </si>
+  <si>
+    <t>mode  19 :  913.307561  cm-1</t>
+  </si>
+  <si>
+    <t>mode  20 :  872.518779  cm-1</t>
+  </si>
+  <si>
+    <t>mode  21 :  843.681766  cm-1</t>
+  </si>
+  <si>
+    <t>mode  22 :  790.018670  cm-1</t>
+  </si>
+  <si>
+    <t>mode  23 :  779.336456  cm-1</t>
+  </si>
+  <si>
+    <t>mode  24 :  718.503119  cm-1</t>
+  </si>
+  <si>
+    <t>mode  25 :  686.836751  cm-1</t>
+  </si>
+  <si>
+    <t>mode  26 :  667.364407  cm-1</t>
+  </si>
+  <si>
+    <t>mode  27 :  594.053249  cm-1</t>
+  </si>
+  <si>
+    <t>mode  28 :  591.427932  cm-1</t>
+  </si>
+  <si>
+    <t>mode  29 :  428.338753  cm-1</t>
+  </si>
+  <si>
+    <t>mode  30 :  275.274550  cm-1</t>
+  </si>
+  <si>
+    <t>mode  31 :  264.667924  cm-1</t>
+  </si>
+  <si>
+    <t>mode  32 :  208.148796  cm-1</t>
+  </si>
+  <si>
+    <t>mode  33 :  160.377195  cm-1</t>
+  </si>
+  <si>
+    <t>mode  34 :  140.083394  cm-1</t>
+  </si>
+  <si>
+    <t>mode  35 :  101.558972  cm-1</t>
+  </si>
+  <si>
+    <t>mode  36 :  57.651313  cm-1</t>
+  </si>
+  <si>
+    <t>mode  37 :  39.476405  cm-1</t>
+  </si>
+  <si>
+    <t>i-mode 39 :  1015.813130  cm-1</t>
+  </si>
+  <si>
+    <t>mode 38 :  22.077312  cm-1</t>
+  </si>
+  <si>
+    <t>Au_H-H</t>
+  </si>
+  <si>
+    <t>Au_FCHO-H</t>
+  </si>
+  <si>
+    <t>Au_FCH-HO</t>
+  </si>
+  <si>
+    <t>Au_FCHOH-H</t>
+  </si>
+  <si>
+    <t>Au_FCH2O-H</t>
+  </si>
+  <si>
+    <t>mode  1 :  3206.307713  cm-1</t>
+  </si>
+  <si>
+    <t>mode  2 :  3194.897738  cm-1</t>
+  </si>
+  <si>
+    <t>mode  3 :  3182.060439  cm-1</t>
+  </si>
+  <si>
+    <t>mode  4 :  2842.194999  cm-1</t>
+  </si>
+  <si>
+    <t>mode  5 :  1864.663267  cm-1</t>
+  </si>
+  <si>
+    <t>mode  6 :  1651.839803  cm-1</t>
+  </si>
+  <si>
+    <t>mode  7 :  1541.360813  cm-1</t>
+  </si>
+  <si>
+    <t>mode  8 :  1440.626795  cm-1</t>
+  </si>
+  <si>
+    <t>mode  9 :  1397.146095  cm-1</t>
+  </si>
+  <si>
+    <t>mode  10 :  1352.015980  cm-1</t>
+  </si>
+  <si>
+    <t>mode  11 :  1240.396581  cm-1</t>
+  </si>
+  <si>
+    <t>mode  12 :  1181.209901  cm-1</t>
+  </si>
+  <si>
+    <t>mode  13 :  1147.169731  cm-1</t>
+  </si>
+  <si>
+    <t>mode  14 :  1087.116943  cm-1</t>
+  </si>
+  <si>
+    <t>mode  15 :  1011.622377  cm-1</t>
+  </si>
+  <si>
+    <t>mode  16 :  948.294870  cm-1</t>
+  </si>
+  <si>
+    <t>mode  17 :  929.151196  cm-1</t>
+  </si>
+  <si>
+    <t>mode  18 :  879.223407  cm-1</t>
+  </si>
+  <si>
+    <t>mode  19 :  873.931923  cm-1</t>
+  </si>
+  <si>
+    <t>mode  20 :  814.881742  cm-1</t>
+  </si>
+  <si>
+    <t>mode  21 :  751.468343  cm-1</t>
+  </si>
+  <si>
+    <t>mode  22 :  732.937602  cm-1</t>
+  </si>
+  <si>
+    <t>mode  23 :  613.143107  cm-1</t>
+  </si>
+  <si>
+    <t>mode  24 :  588.795095  cm-1</t>
+  </si>
+  <si>
+    <t>mode  25 :  487.912072  cm-1</t>
+  </si>
+  <si>
+    <t>mode  26 :  266.358221  cm-1</t>
+  </si>
+  <si>
+    <t>mode  27 :  212.709235  cm-1</t>
+  </si>
+  <si>
+    <t>mode  28 :  195.991278  cm-1</t>
+  </si>
+  <si>
+    <t>mode  29 :  172.793093  cm-1</t>
+  </si>
+  <si>
+    <t>mode  30 :  86.771708  cm-1</t>
+  </si>
+  <si>
+    <t>mode  31 :  70.747502  cm-1</t>
+  </si>
+  <si>
+    <t>mode  32 :  63.375370  cm-1</t>
+  </si>
+  <si>
+    <t>mode  33 :  28.025357  cm-1</t>
+  </si>
+  <si>
+    <t>mode  34 :  27.060891  cm-1</t>
+  </si>
+  <si>
+    <t>i-mode 36 :  409.788580  cm-1</t>
+  </si>
+  <si>
+    <t>mode  1 :  3208.143672  cm-1</t>
+  </si>
+  <si>
+    <t>mode  2 :  3193.432109  cm-1</t>
+  </si>
+  <si>
+    <t>mode  3 :  3184.051914  cm-1</t>
+  </si>
+  <si>
+    <t>mode  4 :  2903.199034  cm-1</t>
+  </si>
+  <si>
+    <t>mode  5 :  1846.706887  cm-1</t>
+  </si>
+  <si>
+    <t>mode  6 :  1602.687416  cm-1</t>
+  </si>
+  <si>
+    <t>mode  7 :  1530.877201  cm-1</t>
+  </si>
+  <si>
+    <t>mode  8 :  1445.223479  cm-1</t>
+  </si>
+  <si>
+    <t>mode  9 :  1383.230450  cm-1</t>
+  </si>
+  <si>
+    <t>mode  10 :  1336.331831  cm-1</t>
+  </si>
+  <si>
+    <t>mode  11 :  1232.671116  cm-1</t>
+  </si>
+  <si>
+    <t>mode  12 :  1181.866460  cm-1</t>
+  </si>
+  <si>
+    <t>mode  13 :  1136.634646  cm-1</t>
+  </si>
+  <si>
+    <t>mode  14 :  1082.125308  cm-1</t>
+  </si>
+  <si>
+    <t>mode  15 :  1010.606003  cm-1</t>
+  </si>
+  <si>
+    <t>mode  16 :  927.043880  cm-1</t>
+  </si>
+  <si>
+    <t>mode  17 :  892.437426  cm-1</t>
+  </si>
+  <si>
+    <t>mode  18 :  876.557613  cm-1</t>
+  </si>
+  <si>
+    <t>mode  19 :  870.049654  cm-1</t>
+  </si>
+  <si>
+    <t>mode  20 :  816.955725  cm-1</t>
+  </si>
+  <si>
+    <t>mode  21 :  752.835504  cm-1</t>
+  </si>
+  <si>
+    <t>mode  22 :  732.826327  cm-1</t>
+  </si>
+  <si>
+    <t>mode  23 :  596.727942  cm-1</t>
+  </si>
+  <si>
+    <t>mode  24 :  586.369862  cm-1</t>
+  </si>
+  <si>
+    <t>mode  25 :  477.538082  cm-1</t>
+  </si>
+  <si>
+    <t>mode  26 :  386.846852  cm-1</t>
+  </si>
+  <si>
+    <t>mode  27 :  345.695497  cm-1</t>
+  </si>
+  <si>
+    <t>mode  28 :  265.752648  cm-1</t>
+  </si>
+  <si>
+    <t>mode  29 :  192.014173  cm-1</t>
+  </si>
+  <si>
+    <t>mode  30 :  186.168770  cm-1</t>
+  </si>
+  <si>
+    <t>mode  31 :  120.241897  cm-1</t>
+  </si>
+  <si>
+    <t>mode  32 :  101.208428  cm-1</t>
+  </si>
+  <si>
+    <t>mode  33 :  78.490544  cm-1</t>
+  </si>
+  <si>
+    <t>mode  34 :  44.203297  cm-1</t>
+  </si>
+  <si>
+    <t>mode  35 :  26.000778  cm-1</t>
+  </si>
+  <si>
+    <t>i-mode  36 :  522.111079  cm-1</t>
+  </si>
+  <si>
+    <t>mode  1 :  3210.660618  cm-1</t>
+  </si>
+  <si>
+    <t>mode  2 :  3190.246296  cm-1</t>
+  </si>
+  <si>
+    <t>mode  3 :  3178.834520  cm-1</t>
+  </si>
+  <si>
+    <t>mode  4 :  3175.331603  cm-1</t>
+  </si>
+  <si>
+    <t>mode  5 :  3139.137252  cm-1</t>
+  </si>
+  <si>
+    <t>mode  6 :  1626.329721  cm-1</t>
+  </si>
+  <si>
+    <t>mode  7 :  1513.233827  cm-1</t>
+  </si>
+  <si>
+    <t>mode  8 :  1450.619886  cm-1</t>
+  </si>
+  <si>
+    <t>mode  9 :  1406.444890  cm-1</t>
+  </si>
+  <si>
+    <t>mode  10 :  1375.595982  cm-1</t>
+  </si>
+  <si>
+    <t>mode  11 :  1327.486979  cm-1</t>
+  </si>
+  <si>
+    <t>mode  12 :  1248.488759  cm-1</t>
+  </si>
+  <si>
+    <t>mode  13 :  1179.540440  cm-1</t>
+  </si>
+  <si>
+    <t>mode  14 :  1149.287952  cm-1</t>
+  </si>
+  <si>
+    <t>mode  15 :  1138.238125  cm-1</t>
+  </si>
+  <si>
+    <t>mode  16 :  1089.579890  cm-1</t>
+  </si>
+  <si>
+    <t>mode  17 :  1024.510723  cm-1</t>
+  </si>
+  <si>
+    <t>mode  18 :  915.359337  cm-1</t>
+  </si>
+  <si>
+    <t>mode  19 :  873.103647  cm-1</t>
+  </si>
+  <si>
+    <t>mode  20 :  864.381342  cm-1</t>
+  </si>
+  <si>
+    <t>mode  21 :  779.641910  cm-1</t>
+  </si>
+  <si>
+    <t>mode  22 :  750.951916  cm-1</t>
+  </si>
+  <si>
+    <t>mode  23 :  736.595440  cm-1</t>
+  </si>
+  <si>
+    <t>mode  24 :  659.157009  cm-1</t>
+  </si>
+  <si>
+    <t>mode  25 :  633.330797  cm-1</t>
+  </si>
+  <si>
+    <t>mode  26 :  567.257268  cm-1</t>
+  </si>
+  <si>
+    <t>mode  27 :  549.701474  cm-1</t>
+  </si>
+  <si>
+    <t>mode  28 :  483.806101  cm-1</t>
+  </si>
+  <si>
+    <t>mode  29 :  421.233841  cm-1</t>
+  </si>
+  <si>
+    <t>mode  30 :  368.996248  cm-1</t>
+  </si>
+  <si>
+    <t>mode  31 :  207.257719  cm-1</t>
+  </si>
+  <si>
+    <t>mode  32 :  193.844365  cm-1</t>
+  </si>
+  <si>
+    <t>mode  33 :  142.282571  cm-1</t>
+  </si>
+  <si>
+    <t>mode  34 :  113.649213  cm-1</t>
+  </si>
+  <si>
+    <t>mode  35 :  71.919944  cm-1</t>
+  </si>
+  <si>
+    <t>mode  36 :  46.332841  cm-1</t>
+  </si>
+  <si>
+    <t>mode  37 :  37.668444  cm-1</t>
+  </si>
+  <si>
+    <t>i-mode 39 :  181.332953  cm-1</t>
+  </si>
+  <si>
+    <t>mode 38 :  35.067283  cm-1</t>
+  </si>
+  <si>
+    <t>Pt_H-H</t>
+  </si>
+  <si>
+    <t>Pt_FCHO-H</t>
+  </si>
+  <si>
+    <t>Pt_FCH-HO</t>
+  </si>
+  <si>
+    <t>Pt_FCHOH-H</t>
+  </si>
+  <si>
+    <t>Pt_FCH2O-H</t>
+  </si>
+  <si>
+    <t>mode  1 :  3970.488193  cm-1</t>
+  </si>
+  <si>
+    <t>mode  2 :  236.322882  cm-1</t>
+  </si>
+  <si>
+    <t>mode  3 :  160.367216  cm-1</t>
+  </si>
+  <si>
+    <t>i-mode 6 :  185.139954  cm-1</t>
+  </si>
+  <si>
+    <t>mode 4 :  125.179815  cm-1</t>
+  </si>
+  <si>
+    <t>mode 5 :  93.639962  cm-1</t>
+  </si>
+  <si>
+    <t>mode  1 :  3151.656996  cm-1</t>
+  </si>
+  <si>
+    <t>mode  2 :  3132.776893  cm-1</t>
+  </si>
+  <si>
+    <t>mode  3 :  3089.734272  cm-1</t>
+  </si>
+  <si>
+    <t>mode  4 :  2959.868266  cm-1</t>
+  </si>
+  <si>
+    <t>mode  5 :  1561.754769  cm-1</t>
+  </si>
+  <si>
+    <t>mode  6 :  1373.368314  cm-1</t>
+  </si>
+  <si>
+    <t>mode  7 :  1323.921789  cm-1</t>
+  </si>
+  <si>
+    <t>mode  8 :  1308.650571  cm-1</t>
+  </si>
+  <si>
+    <t>mode  9 :  1278.410571  cm-1</t>
+  </si>
+  <si>
+    <t>mode  10 :  1203.940143  cm-1</t>
+  </si>
+  <si>
+    <t>mode  11 :  1112.933617  cm-1</t>
+  </si>
+  <si>
+    <t>mode  12 :  1096.161224  cm-1</t>
+  </si>
+  <si>
+    <t>mode  13 :  1050.432182  cm-1</t>
+  </si>
+  <si>
+    <t>mode  14 :  988.704221  cm-1</t>
+  </si>
+  <si>
+    <t>mode  15 :  949.328868  cm-1</t>
+  </si>
+  <si>
+    <t>mode  16 :  901.914728  cm-1</t>
+  </si>
+  <si>
+    <t>mode  17 :  891.369384  cm-1</t>
+  </si>
+  <si>
+    <t>mode  18 :  873.034921  cm-1</t>
+  </si>
+  <si>
+    <t>mode  19 :  812.418447  cm-1</t>
+  </si>
+  <si>
+    <t>mode  20 :  804.203819  cm-1</t>
+  </si>
+  <si>
+    <t>mode  21 :  770.377226  cm-1</t>
+  </si>
+  <si>
+    <t>mode  22 :  703.782062  cm-1</t>
+  </si>
+  <si>
+    <t>mode  23 :  661.216871  cm-1</t>
+  </si>
+  <si>
+    <t>mode  24 :  604.148282  cm-1</t>
+  </si>
+  <si>
+    <t>mode  25 :  560.195204  cm-1</t>
+  </si>
+  <si>
+    <t>mode  26 :  484.690244  cm-1</t>
+  </si>
+  <si>
+    <t>mode  27 :  404.278543  cm-1</t>
+  </si>
+  <si>
+    <t>mode  28 :  388.824663  cm-1</t>
+  </si>
+  <si>
+    <t>mode  29 :  346.657530  cm-1</t>
+  </si>
+  <si>
+    <t>mode  30 :  302.078013  cm-1</t>
+  </si>
+  <si>
+    <t>mode  31 :  244.359491  cm-1</t>
+  </si>
+  <si>
+    <t>mode  32 :  212.601784  cm-1</t>
+  </si>
+  <si>
+    <t>mode  33 :  139.842720  cm-1</t>
+  </si>
+  <si>
+    <t>mode  34 :  128.035327  cm-1</t>
+  </si>
+  <si>
+    <t>mode  35 :  83.221051  cm-1</t>
+  </si>
+  <si>
+    <t>i-mode 36 :  647.223237  cm-1</t>
+  </si>
+  <si>
+    <t>mode  1 :  3140.483713  cm-1</t>
+  </si>
+  <si>
+    <t>mode  2 :  3123.558566  cm-1</t>
+  </si>
+  <si>
+    <t>mode  3 :  3084.504453  cm-1</t>
+  </si>
+  <si>
+    <t>mode  4 :  2959.128232  cm-1</t>
+  </si>
+  <si>
+    <t>mode  5 :  1765.882289  cm-1</t>
+  </si>
+  <si>
+    <t>mode  6 :  1474.469473  cm-1</t>
+  </si>
+  <si>
+    <t>mode  7 :  1318.582082  cm-1</t>
+  </si>
+  <si>
+    <t>mode  8 :  1300.093702  cm-1</t>
+  </si>
+  <si>
+    <t>mode  9 :  1266.370338  cm-1</t>
+  </si>
+  <si>
+    <t>mode  10 :  1239.081866  cm-1</t>
+  </si>
+  <si>
+    <t>mode  11 :  1133.355896  cm-1</t>
+  </si>
+  <si>
+    <t>mode  12 :  1057.258432  cm-1</t>
+  </si>
+  <si>
+    <t>mode  13 :  1039.505268  cm-1</t>
+  </si>
+  <si>
+    <t>mode  14 :  973.723237  cm-1</t>
+  </si>
+  <si>
+    <t>mode  15 :  939.626403  cm-1</t>
+  </si>
+  <si>
+    <t>mode  16 :  894.823950  cm-1</t>
+  </si>
+  <si>
+    <t>mode  17 :  868.388672  cm-1</t>
+  </si>
+  <si>
+    <t>mode  18 :  846.622299  cm-1</t>
+  </si>
+  <si>
+    <t>mode  19 :  787.345554  cm-1</t>
+  </si>
+  <si>
+    <t>mode  20 :  777.957037  cm-1</t>
+  </si>
+  <si>
+    <t>mode  21 :  748.768500  cm-1</t>
+  </si>
+  <si>
+    <t>mode  22 :  712.441927  cm-1</t>
+  </si>
+  <si>
+    <t>mode  23 :  637.123841  cm-1</t>
+  </si>
+  <si>
+    <t>mode  24 :  598.392937  cm-1</t>
+  </si>
+  <si>
+    <t>mode  25 :  578.463218  cm-1</t>
+  </si>
+  <si>
+    <t>mode  26 :  542.492220  cm-1</t>
+  </si>
+  <si>
+    <t>mode  27 :  472.262503  cm-1</t>
+  </si>
+  <si>
+    <t>mode  28 :  414.637064  cm-1</t>
+  </si>
+  <si>
+    <t>mode  29 :  354.484953  cm-1</t>
+  </si>
+  <si>
+    <t>mode  30 :  310.575009  cm-1</t>
+  </si>
+  <si>
+    <t>mode  31 :  271.951260  cm-1</t>
+  </si>
+  <si>
+    <t>mode  32 :  209.755972  cm-1</t>
+  </si>
+  <si>
+    <t>mode  33 :  183.415817  cm-1</t>
+  </si>
+  <si>
+    <t>mode  34 :  159.994089  cm-1</t>
+  </si>
+  <si>
+    <t>mode  35 :  132.711546  cm-1</t>
+  </si>
+  <si>
+    <t>i-mode  36 :  458.921594  cm-1</t>
+  </si>
+  <si>
+    <t>mode  1 :  3146.566718  cm-1</t>
+  </si>
+  <si>
+    <t>mode  2 :  3133.940146  cm-1</t>
+  </si>
+  <si>
+    <t>mode  3 :  3092.937463  cm-1</t>
+  </si>
+  <si>
+    <t>mode  4 :  3079.960020  cm-1</t>
+  </si>
+  <si>
+    <t>mode  5 :  2877.193451  cm-1</t>
+  </si>
+  <si>
+    <t>mode  6 :  1505.450634  cm-1</t>
+  </si>
+  <si>
+    <t>mode  7 :  1391.676458  cm-1</t>
+  </si>
+  <si>
+    <t>mode  8 :  1319.774167  cm-1</t>
+  </si>
+  <si>
+    <t>mode  9 :  1304.023223  cm-1</t>
+  </si>
+  <si>
+    <t>mode  10 :  1276.390915  cm-1</t>
+  </si>
+  <si>
+    <t>mode  11 :  1268.508766  cm-1</t>
+  </si>
+  <si>
+    <t>mode  12 :  1187.264574  cm-1</t>
+  </si>
+  <si>
+    <t>mode  13 :  1139.625520  cm-1</t>
+  </si>
+  <si>
+    <t>mode  14 :  1083.079014  cm-1</t>
+  </si>
+  <si>
+    <t>mode  15 :  1047.125782  cm-1</t>
+  </si>
+  <si>
+    <t>mode  16 :  978.899583  cm-1</t>
+  </si>
+  <si>
+    <t>mode  17 :  943.486108  cm-1</t>
+  </si>
+  <si>
+    <t>mode  18 :  889.211879  cm-1</t>
+  </si>
+  <si>
+    <t>mode  19 :  880.673210  cm-1</t>
+  </si>
+  <si>
+    <t>mode  20 :  810.524223  cm-1</t>
+  </si>
+  <si>
+    <t>mode  21 :  782.245239  cm-1</t>
+  </si>
+  <si>
+    <t>mode  22 :  778.390104  cm-1</t>
+  </si>
+  <si>
+    <t>mode  23 :  761.790262  cm-1</t>
+  </si>
+  <si>
+    <t>mode  24 :  704.715781  cm-1</t>
+  </si>
+  <si>
+    <t>mode  25 :  640.440968  cm-1</t>
+  </si>
+  <si>
+    <t>mode  26 :  610.507947  cm-1</t>
+  </si>
+  <si>
+    <t>mode  27 :  539.553573  cm-1</t>
+  </si>
+  <si>
+    <t>mode  28 :  516.349815  cm-1</t>
+  </si>
+  <si>
+    <t>mode  29 :  470.338650  cm-1</t>
+  </si>
+  <si>
+    <t>mode  30 :  402.361518  cm-1</t>
+  </si>
+  <si>
+    <t>mode  31 :  384.629176  cm-1</t>
+  </si>
+  <si>
+    <t>mode  32 :  324.762282  cm-1</t>
+  </si>
+  <si>
+    <t>mode  33 :  246.877075  cm-1</t>
+  </si>
+  <si>
+    <t>mode  34 :  217.144050  cm-1</t>
+  </si>
+  <si>
+    <t>mode  35 :  191.327951  cm-1</t>
+  </si>
+  <si>
+    <t>mode  36 :  151.830751  cm-1</t>
+  </si>
+  <si>
+    <t>mode  37 :  120.995673  cm-1</t>
+  </si>
+  <si>
+    <t>mode  38 :  75.771825  cm-1</t>
+  </si>
+  <si>
+    <t>i-mode 39 :  630.699127  cm-1</t>
+  </si>
+  <si>
+    <t>mode  1 :  3135.022205  cm-1</t>
+  </si>
+  <si>
+    <t>mode  2 :  3123.373278  cm-1</t>
+  </si>
+  <si>
+    <t>mode  3 :  3079.659410  cm-1</t>
+  </si>
+  <si>
+    <t>mode  4 :  2948.819089  cm-1</t>
+  </si>
+  <si>
+    <t>mode  5 :  2901.753887  cm-1</t>
+  </si>
+  <si>
+    <t>mode  6 :  1395.211709  cm-1</t>
+  </si>
+  <si>
+    <t>mode  7 :  1321.889764  cm-1</t>
+  </si>
+  <si>
+    <t>mode  8 :  1311.480728  cm-1</t>
+  </si>
+  <si>
+    <t>mode  9 :  1268.605945  cm-1</t>
+  </si>
+  <si>
+    <t>mode  10 :  1259.165535  cm-1</t>
+  </si>
+  <si>
+    <t>mode  11 :  1214.880986  cm-1</t>
+  </si>
+  <si>
+    <t>mode  12 :  1120.577809  cm-1</t>
+  </si>
+  <si>
+    <t>mode  13 :  1063.864998  cm-1</t>
+  </si>
+  <si>
+    <t>mode  14 :  1042.951142  cm-1</t>
+  </si>
+  <si>
+    <t>mode  15 :  1019.112847  cm-1</t>
+  </si>
+  <si>
+    <t>mode  16 :  986.951830  cm-1</t>
+  </si>
+  <si>
+    <t>mode  17 :  942.285120  cm-1</t>
+  </si>
+  <si>
+    <t>mode  18 :  934.074784  cm-1</t>
+  </si>
+  <si>
+    <t>mode  19 :  899.750601  cm-1</t>
+  </si>
+  <si>
+    <t>mode  20 :  876.599534  cm-1</t>
+  </si>
+  <si>
+    <t>mode  21 :  857.354275  cm-1</t>
+  </si>
+  <si>
+    <t>mode  22 :  788.365230  cm-1</t>
+  </si>
+  <si>
+    <t>mode  23 :  769.446026  cm-1</t>
+  </si>
+  <si>
+    <t>mode  24 :  751.395962  cm-1</t>
+  </si>
+  <si>
+    <t>mode  25 :  741.418653  cm-1</t>
+  </si>
+  <si>
+    <t>mode  26 :  698.519318  cm-1</t>
+  </si>
+  <si>
+    <t>mode  27 :  602.729833  cm-1</t>
+  </si>
+  <si>
+    <t>mode  28 :  553.141553  cm-1</t>
+  </si>
+  <si>
+    <t>mode  29 :  436.284150  cm-1</t>
+  </si>
+  <si>
+    <t>mode  30 :  415.604500  cm-1</t>
+  </si>
+  <si>
+    <t>mode  31 :  349.170916  cm-1</t>
+  </si>
+  <si>
+    <t>mode  32 :  325.494218  cm-1</t>
+  </si>
+  <si>
+    <t>mode  33 :  310.574915  cm-1</t>
+  </si>
+  <si>
+    <t>mode  34 :  265.366771  cm-1</t>
+  </si>
+  <si>
+    <t>mode  35 :  209.009933  cm-1</t>
+  </si>
+  <si>
+    <t>mode  36 :  158.119631  cm-1</t>
+  </si>
+  <si>
+    <t>mode  37 :  136.905984  cm-1</t>
+  </si>
+  <si>
+    <t>mode  38 :  93.140297  cm-1</t>
+  </si>
+  <si>
+    <t>i-mode 39 :  1013.953176  cm-1</t>
+  </si>
+  <si>
+    <t>Pd_H-H</t>
+  </si>
+  <si>
+    <t>Pd_FCHO-H</t>
+  </si>
+  <si>
+    <t>Pd_FCH-HO</t>
+  </si>
+  <si>
+    <t>Pd_FCHOH-H</t>
+  </si>
+  <si>
+    <t>Pd_FCH2O-H</t>
+  </si>
+  <si>
+    <t>mode  1 :  3140.462898  cm-1</t>
+  </si>
+  <si>
+    <t>mode  2 :  3097.640792  cm-1</t>
+  </si>
+  <si>
+    <t>mode  3 :  3069.219467  cm-1</t>
+  </si>
+  <si>
+    <t>mode  4 :  2922.797746  cm-1</t>
+  </si>
+  <si>
+    <t>mode  5 :  1388.332318  cm-1</t>
+  </si>
+  <si>
+    <t>mode  6 :  1382.566394  cm-1</t>
+  </si>
+  <si>
+    <t>mode  7 :  1288.154647  cm-1</t>
+  </si>
+  <si>
+    <t>mode  8 :  1271.736970  cm-1</t>
+  </si>
+  <si>
+    <t>mode  9 :  1234.778817  cm-1</t>
+  </si>
+  <si>
+    <t>mode  10 :  1169.310988  cm-1</t>
+  </si>
+  <si>
+    <t>mode  11 :  1121.384102  cm-1</t>
+  </si>
+  <si>
+    <t>mode  12 :  1017.994955  cm-1</t>
+  </si>
+  <si>
+    <t>mode  13 :  966.156653  cm-1</t>
+  </si>
+  <si>
+    <t>mode  14 :  941.177807  cm-1</t>
+  </si>
+  <si>
+    <t>mode  15 :  868.617448  cm-1</t>
+  </si>
+  <si>
+    <t>mode  16 :  829.384780  cm-1</t>
+  </si>
+  <si>
+    <t>mode  17 :  800.472119  cm-1</t>
+  </si>
+  <si>
+    <t>mode  18 :  785.670218  cm-1</t>
+  </si>
+  <si>
+    <t>mode  19 :  777.391862  cm-1</t>
+  </si>
+  <si>
+    <t>mode  20 :  704.941274  cm-1</t>
+  </si>
+  <si>
+    <t>mode  21 :  696.638975  cm-1</t>
+  </si>
+  <si>
+    <t>mode  22 :  646.335630  cm-1</t>
+  </si>
+  <si>
+    <t>mode  23 :  566.534427  cm-1</t>
+  </si>
+  <si>
+    <t>mode  24 :  541.005999  cm-1</t>
+  </si>
+  <si>
+    <t>mode  25 :  470.383736  cm-1</t>
+  </si>
+  <si>
+    <t>mode  26 :  402.756691  cm-1</t>
+  </si>
+  <si>
+    <t>mode  27 :  368.347653  cm-1</t>
+  </si>
+  <si>
+    <t>mode  28 :  315.343485  cm-1</t>
+  </si>
+  <si>
+    <t>mode  29 :  291.224659  cm-1</t>
+  </si>
+  <si>
+    <t>mode  30 :  224.270596  cm-1</t>
+  </si>
+  <si>
+    <t>mode  31 :  210.779790  cm-1</t>
+  </si>
+  <si>
+    <t>mode  32 :  180.115735  cm-1</t>
+  </si>
+  <si>
+    <t>mode  33 :  113.192114  cm-1</t>
+  </si>
+  <si>
+    <t>mode  34 :  103.899691  cm-1</t>
+  </si>
+  <si>
+    <t>mode  35 :  54.251677  cm-1</t>
+  </si>
+  <si>
+    <t>i-mode 36 :  835.783947  cm-1</t>
+  </si>
+  <si>
+    <t>mode  1 :  3130.921978  cm-1</t>
+  </si>
+  <si>
+    <t>mode  2 :  3117.993868  cm-1</t>
+  </si>
+  <si>
+    <t>mode  3 :  3100.291569  cm-1</t>
+  </si>
+  <si>
+    <t>mode  4 :  2895.894067  cm-1</t>
+  </si>
+  <si>
+    <t>mode  5 :  1518.765534  cm-1</t>
+  </si>
+  <si>
+    <t>mode  6 :  1348.131086  cm-1</t>
+  </si>
+  <si>
+    <t>mode  7 :  1331.166859  cm-1</t>
+  </si>
+  <si>
+    <t>mode  8 :  1297.040155  cm-1</t>
+  </si>
+  <si>
+    <t>mode  9 :  1288.577077  cm-1</t>
+  </si>
+  <si>
+    <t>mode  10 :  1240.608578  cm-1</t>
+  </si>
+  <si>
+    <t>mode  11 :  1164.575824  cm-1</t>
+  </si>
+  <si>
+    <t>mode  12 :  1112.577524  cm-1</t>
+  </si>
+  <si>
+    <t>mode  13 :  1030.182755  cm-1</t>
+  </si>
+  <si>
+    <t>mode  14 :  969.781012  cm-1</t>
+  </si>
+  <si>
+    <t>mode  15 :  951.572331  cm-1</t>
+  </si>
+  <si>
+    <t>mode  16 :  858.673388  cm-1</t>
+  </si>
+  <si>
+    <t>mode  17 :  835.810340  cm-1</t>
+  </si>
+  <si>
+    <t>mode  18 :  822.179777  cm-1</t>
+  </si>
+  <si>
+    <t>mode  19 :  788.281202  cm-1</t>
+  </si>
+  <si>
+    <t>mode  20 :  761.971704  cm-1</t>
+  </si>
+  <si>
+    <t>mode  21 :  723.828880  cm-1</t>
+  </si>
+  <si>
+    <t>mode  22 :  717.893354  cm-1</t>
+  </si>
+  <si>
+    <t>mode  23 :  627.193144  cm-1</t>
+  </si>
+  <si>
+    <t>mode  24 :  565.548989  cm-1</t>
+  </si>
+  <si>
+    <t>mode  25 :  503.813642  cm-1</t>
+  </si>
+  <si>
+    <t>mode  26 :  475.512116  cm-1</t>
+  </si>
+  <si>
+    <t>mode  27 :  438.018686  cm-1</t>
+  </si>
+  <si>
+    <t>mode  28 :  344.212103  cm-1</t>
+  </si>
+  <si>
+    <t>mode  29 :  273.020300  cm-1</t>
+  </si>
+  <si>
+    <t>mode  30 :  246.579436  cm-1</t>
+  </si>
+  <si>
+    <t>mode  31 :  227.164652  cm-1</t>
+  </si>
+  <si>
+    <t>mode  32 :  207.298136  cm-1</t>
+  </si>
+  <si>
+    <t>mode  33 :  122.070969  cm-1</t>
+  </si>
+  <si>
+    <t>mode  34 :  107.375472  cm-1</t>
+  </si>
+  <si>
+    <t>mode  35 :  69.832150  cm-1</t>
+  </si>
+  <si>
+    <t>i-mode 36 :  622.775213  cm-1</t>
+  </si>
+  <si>
+    <t>mode  1 :  3147.956627  cm-1</t>
+  </si>
+  <si>
+    <t>mode  2 :  3131.455780  cm-1</t>
+  </si>
+  <si>
+    <t>mode  3 :  3112.877046  cm-1</t>
+  </si>
+  <si>
+    <t>mode  4 :  3102.366877  cm-1</t>
+  </si>
+  <si>
+    <t>mode  5 :  3069.395057  cm-1</t>
+  </si>
+  <si>
+    <t>mode  6 :  1420.063403  cm-1</t>
+  </si>
+  <si>
+    <t>mode  7 :  1341.100637  cm-1</t>
+  </si>
+  <si>
+    <t>mode  8 :  1320.010066  cm-1</t>
+  </si>
+  <si>
+    <t>mode  9 :  1304.660248  cm-1</t>
+  </si>
+  <si>
+    <t>mode  10 :  1283.476342  cm-1</t>
+  </si>
+  <si>
+    <t>mode  11 :  1196.460837  cm-1</t>
+  </si>
+  <si>
+    <t>mode  12 :  1140.631006  cm-1</t>
+  </si>
+  <si>
+    <t>mode  13 :  1122.274891  cm-1</t>
+  </si>
+  <si>
+    <t>mode  14 :  1107.666381  cm-1</t>
+  </si>
+  <si>
+    <t>mode  15 :  1035.728721  cm-1</t>
+  </si>
+  <si>
+    <t>mode  16 :  984.368308  cm-1</t>
+  </si>
+  <si>
+    <t>mode  17 :  952.262865  cm-1</t>
+  </si>
+  <si>
+    <t>mode  18 :  893.955563  cm-1</t>
+  </si>
+  <si>
+    <t>mode  19 :  849.412900  cm-1</t>
+  </si>
+  <si>
+    <t>mode  20 :  824.070222  cm-1</t>
+  </si>
+  <si>
+    <t>mode  21 :  786.803028  cm-1</t>
+  </si>
+  <si>
+    <t>mode  22 :  767.974882  cm-1</t>
+  </si>
+  <si>
+    <t>mode  23 :  718.481807  cm-1</t>
+  </si>
+  <si>
+    <t>mode  24 :  709.146331  cm-1</t>
+  </si>
+  <si>
+    <t>mode  25 :  659.550002  cm-1</t>
+  </si>
+  <si>
+    <t>mode  26 :  557.639199  cm-1</t>
+  </si>
+  <si>
+    <t>mode  27 :  517.771498  cm-1</t>
+  </si>
+  <si>
+    <t>mode  28 :  462.013210  cm-1</t>
+  </si>
+  <si>
+    <t>mode  29 :  447.376719  cm-1</t>
+  </si>
+  <si>
+    <t>mode  30 :  327.571217  cm-1</t>
+  </si>
+  <si>
+    <t>mode  31 :  289.475075  cm-1</t>
+  </si>
+  <si>
+    <t>mode  32 :  267.453159  cm-1</t>
+  </si>
+  <si>
+    <t>mode  33 :  212.086301  cm-1</t>
+  </si>
+  <si>
+    <t>mode  34 :  182.517402  cm-1</t>
+  </si>
+  <si>
+    <t>mode  35 :  162.903983  cm-1</t>
+  </si>
+  <si>
+    <t>mode  36 :  85.156457  cm-1</t>
+  </si>
+  <si>
+    <t>mode  37 :  84.103386  cm-1</t>
+  </si>
+  <si>
+    <t>mode  38 :  62.921475  cm-1</t>
+  </si>
+  <si>
+    <t>i-mode 39 :  1062.841493  cm-1</t>
+  </si>
+  <si>
+    <t>mode  1 :  3143.387596  cm-1</t>
+  </si>
+  <si>
+    <t>mode  2 :  3125.700619  cm-1</t>
+  </si>
+  <si>
+    <t>mode  3 :  3102.350590  cm-1</t>
+  </si>
+  <si>
+    <t>mode  4 :  2888.497245  cm-1</t>
+  </si>
+  <si>
+    <t>mode  5 :  2855.036173  cm-1</t>
+  </si>
+  <si>
+    <t>mode  6 :  1409.946698  cm-1</t>
+  </si>
+  <si>
+    <t>mode  7 :  1334.655185  cm-1</t>
+  </si>
+  <si>
+    <t>mode  8 :  1316.542860  cm-1</t>
+  </si>
+  <si>
+    <t>mode  9 :  1298.360587  cm-1</t>
+  </si>
+  <si>
+    <t>mode  10 :  1281.587152  cm-1</t>
+  </si>
+  <si>
+    <t>mode  11 :  1191.995111  cm-1</t>
+  </si>
+  <si>
+    <t>mode  12 :  1149.411210  cm-1</t>
+  </si>
+  <si>
+    <t>mode  13 :  1082.701448  cm-1</t>
+  </si>
+  <si>
+    <t>mode  14 :  1059.992068  cm-1</t>
+  </si>
+  <si>
+    <t>mode  15 :  1037.060661  cm-1</t>
+  </si>
+  <si>
+    <t>mode  16 :  986.667860  cm-1</t>
+  </si>
+  <si>
+    <t>mode  17 :  966.339088  cm-1</t>
+  </si>
+  <si>
+    <t>mode  18 :  943.940310  cm-1</t>
+  </si>
+  <si>
+    <t>mode  19 :  918.752422  cm-1</t>
+  </si>
+  <si>
+    <t>mode  20 :  839.830290  cm-1</t>
+  </si>
+  <si>
+    <t>mode  21 :  827.048682  cm-1</t>
+  </si>
+  <si>
+    <t>mode  22 :  777.465597  cm-1</t>
+  </si>
+  <si>
+    <t>mode  23 :  762.068480  cm-1</t>
+  </si>
+  <si>
+    <t>mode  24 :  733.485448  cm-1</t>
+  </si>
+  <si>
+    <t>mode  25 :  696.128617  cm-1</t>
+  </si>
+  <si>
+    <t>mode  26 :  640.984097  cm-1</t>
+  </si>
+  <si>
+    <t>mode  27 :  565.809087  cm-1</t>
+  </si>
+  <si>
+    <t>mode  28 :  519.588634  cm-1</t>
+  </si>
+  <si>
+    <t>mode  29 :  434.722267  cm-1</t>
+  </si>
+  <si>
+    <t>mode  30 :  341.492742  cm-1</t>
+  </si>
+  <si>
+    <t>mode  31 :  314.156752  cm-1</t>
+  </si>
+  <si>
+    <t>mode  32 :  277.926880  cm-1</t>
+  </si>
+  <si>
+    <t>mode  33 :  264.590826  cm-1</t>
+  </si>
+  <si>
+    <t>mode  34 :  240.252408  cm-1</t>
+  </si>
+  <si>
+    <t>mode  35 :  228.894870  cm-1</t>
+  </si>
+  <si>
+    <t>mode  36 :  115.599191  cm-1</t>
+  </si>
+  <si>
+    <t>mode  37 :  114.775122  cm-1</t>
+  </si>
+  <si>
+    <t>mode  38 :  87.220375  cm-1</t>
+  </si>
+  <si>
+    <t>i-mode 39 :  753.462213  cm-1</t>
+  </si>
+  <si>
+    <t>Rh_H-H</t>
+  </si>
+  <si>
+    <t>Rh_FCHO-H</t>
+  </si>
+  <si>
+    <t>Rh_FCH-HO</t>
+  </si>
+  <si>
+    <t>Rh_FCHOH-H</t>
+  </si>
+  <si>
+    <t>Rh_FCH2O-H</t>
+  </si>
+  <si>
+    <t>mode  1 :  3133.054989  cm-1</t>
+  </si>
+  <si>
+    <t>mode  2 :  3118.990383  cm-1</t>
+  </si>
+  <si>
+    <t>mode  3 :  3087.025433  cm-1</t>
+  </si>
+  <si>
+    <t>mode  4 :  3009.335144  cm-1</t>
+  </si>
+  <si>
+    <t>mode  5 :  1447.001591  cm-1</t>
+  </si>
+  <si>
+    <t>mode  6 :  1325.677165  cm-1</t>
+  </si>
+  <si>
+    <t>mode  7 :  1302.352935  cm-1</t>
+  </si>
+  <si>
+    <t>mode  8 :  1277.889684  cm-1</t>
+  </si>
+  <si>
+    <t>mode  9 :  1207.311810  cm-1</t>
+  </si>
+  <si>
+    <t>mode  10 :  1165.775512  cm-1</t>
+  </si>
+  <si>
+    <t>mode  11 :  1106.377925  cm-1</t>
+  </si>
+  <si>
+    <t>mode  12 :  1032.037101  cm-1</t>
+  </si>
+  <si>
+    <t>mode  13 :  973.002410  cm-1</t>
+  </si>
+  <si>
+    <t>mode  14 :  948.411752  cm-1</t>
+  </si>
+  <si>
+    <t>mode  15 :  909.621577  cm-1</t>
+  </si>
+  <si>
+    <t>mode  16 :  871.465891  cm-1</t>
+  </si>
+  <si>
+    <t>mode  17 :  848.047496  cm-1</t>
+  </si>
+  <si>
+    <t>mode  18 :  813.774819  cm-1</t>
+  </si>
+  <si>
+    <t>mode  19 :  796.626776  cm-1</t>
+  </si>
+  <si>
+    <t>mode  20 :  763.830056  cm-1</t>
+  </si>
+  <si>
+    <t>mode  21 :  754.082036  cm-1</t>
+  </si>
+  <si>
+    <t>mode  22 :  692.999502  cm-1</t>
+  </si>
+  <si>
+    <t>mode  23 :  592.112681  cm-1</t>
+  </si>
+  <si>
+    <t>mode  24 :  571.539354  cm-1</t>
+  </si>
+  <si>
+    <t>mode  25 :  545.658121  cm-1</t>
+  </si>
+  <si>
+    <t>mode  26 :  462.183558  cm-1</t>
+  </si>
+  <si>
+    <t>mode  27 :  417.000055  cm-1</t>
+  </si>
+  <si>
+    <t>mode  28 :  380.565611  cm-1</t>
+  </si>
+  <si>
+    <t>mode  29 :  345.578837  cm-1</t>
+  </si>
+  <si>
+    <t>mode  30 :  299.686664  cm-1</t>
+  </si>
+  <si>
+    <t>mode  31 :  255.221753  cm-1</t>
+  </si>
+  <si>
+    <t>mode  32 :  188.673421  cm-1</t>
+  </si>
+  <si>
+    <t>mode  33 :  145.925756  cm-1</t>
+  </si>
+  <si>
+    <t>mode  34 :  122.501370  cm-1</t>
+  </si>
+  <si>
+    <t>mode  35 :  114.480856  cm-1</t>
+  </si>
+  <si>
+    <t>i-mode 36 :  866.049651  cm-1</t>
+  </si>
+  <si>
+    <t>mode  1 :  3351.440555  cm-1</t>
+  </si>
+  <si>
+    <t>mode  2 :  3132.075739  cm-1</t>
+  </si>
+  <si>
+    <t>mode  3 :  3102.834168  cm-1</t>
+  </si>
+  <si>
+    <t>mode  4 :  3090.976140  cm-1</t>
+  </si>
+  <si>
+    <t>mode  5 :  2988.524834  cm-1</t>
+  </si>
+  <si>
+    <t>mode  6 :  1456.979528  cm-1</t>
+  </si>
+  <si>
+    <t>mode  7 :  1376.433366  cm-1</t>
+  </si>
+  <si>
+    <t>mode  8 :  1305.814513  cm-1</t>
+  </si>
+  <si>
+    <t>mode  9 :  1291.316997  cm-1</t>
+  </si>
+  <si>
+    <t>mode  10 :  1274.673859  cm-1</t>
+  </si>
+  <si>
+    <t>mode  11 :  1252.370815  cm-1</t>
+  </si>
+  <si>
+    <t>mode  12 :  1194.707576  cm-1</t>
+  </si>
+  <si>
+    <t>mode  13 :  1146.844472  cm-1</t>
+  </si>
+  <si>
+    <t>mode  14 :  1078.988176  cm-1</t>
+  </si>
+  <si>
+    <t>mode  15 :  1060.173404  cm-1</t>
+  </si>
+  <si>
+    <t>mode  16 :  1022.386154  cm-1</t>
+  </si>
+  <si>
+    <t>mode  17 :  967.100050  cm-1</t>
+  </si>
+  <si>
+    <t>mode  18 :  946.030312  cm-1</t>
+  </si>
+  <si>
+    <t>mode  19 :  874.015367  cm-1</t>
+  </si>
+  <si>
+    <t>mode  20 :  841.210672  cm-1</t>
+  </si>
+  <si>
+    <t>mode  21 :  807.189976  cm-1</t>
+  </si>
+  <si>
+    <t>mode  22 :  775.439197  cm-1</t>
+  </si>
+  <si>
+    <t>mode  23 :  769.623290  cm-1</t>
+  </si>
+  <si>
+    <t>mode  24 :  741.516033  cm-1</t>
+  </si>
+  <si>
+    <t>mode  25 :  684.163374  cm-1</t>
+  </si>
+  <si>
+    <t>mode  26 :  613.310129  cm-1</t>
+  </si>
+  <si>
+    <t>mode  27 :  557.283536  cm-1</t>
+  </si>
+  <si>
+    <t>mode  28 :  494.067040  cm-1</t>
+  </si>
+  <si>
+    <t>mode  29 :  444.084478  cm-1</t>
+  </si>
+  <si>
+    <t>mode  30 :  349.726761  cm-1</t>
+  </si>
+  <si>
+    <t>mode  31 :  334.647918  cm-1</t>
+  </si>
+  <si>
+    <t>mode  32 :  260.413435  cm-1</t>
+  </si>
+  <si>
+    <t>mode  33 :  241.286741  cm-1</t>
+  </si>
+  <si>
+    <t>mode  34 :  202.553338  cm-1</t>
+  </si>
+  <si>
+    <t>mode  35 :  162.834851  cm-1</t>
+  </si>
+  <si>
+    <t>mode  36 :  112.165246  cm-1</t>
+  </si>
+  <si>
+    <t>mode  37 :  100.920941  cm-1</t>
+  </si>
+  <si>
+    <t>mode  38 :  62.645715  cm-1</t>
+  </si>
+  <si>
+    <t>i-mode 39 :  514.051552  cm-1</t>
+  </si>
+  <si>
+    <t>mode  1 :  3082.233509  cm-1</t>
+  </si>
+  <si>
+    <t>mode  2 :  3068.596493  cm-1</t>
+  </si>
+  <si>
+    <t>mode  3 :  3025.900436  cm-1</t>
+  </si>
+  <si>
+    <t>mode  4 :  2905.991276  cm-1</t>
+  </si>
+  <si>
+    <t>mode  5 :  2534.476553  cm-1</t>
+  </si>
+  <si>
+    <t>mode  6 :  1396.548838  cm-1</t>
+  </si>
+  <si>
+    <t>mode  7 :  1362.278161  cm-1</t>
+  </si>
+  <si>
+    <t>mode  8 :  1296.849545  cm-1</t>
+  </si>
+  <si>
+    <t>mode  9 :  1266.194598  cm-1</t>
+  </si>
+  <si>
+    <t>mode  10 :  1247.203617  cm-1</t>
+  </si>
+  <si>
+    <t>mode  11 :  1165.892860  cm-1</t>
+  </si>
+  <si>
+    <t>mode  12 :  1142.297808  cm-1</t>
+  </si>
+  <si>
+    <t>mode  13 :  1109.917014  cm-1</t>
+  </si>
+  <si>
+    <t>mode  14 :  1040.176267  cm-1</t>
+  </si>
+  <si>
+    <t>mode  15 :  1002.545185  cm-1</t>
+  </si>
+  <si>
+    <t>mode  16 :  946.455507  cm-1</t>
+  </si>
+  <si>
+    <t>mode  17 :  937.400757  cm-1</t>
+  </si>
+  <si>
+    <t>mode  18 :  928.646519  cm-1</t>
+  </si>
+  <si>
+    <t>mode  19 :  871.315353  cm-1</t>
+  </si>
+  <si>
+    <t>mode  20 :  840.647014  cm-1</t>
+  </si>
+  <si>
+    <t>mode  21 :  823.312830  cm-1</t>
+  </si>
+  <si>
+    <t>mode  22 :  794.814954  cm-1</t>
+  </si>
+  <si>
+    <t>mode  23 :  776.036385  cm-1</t>
+  </si>
+  <si>
+    <t>mode  24 :  736.954649  cm-1</t>
+  </si>
+  <si>
+    <t>mode  25 :  674.490211  cm-1</t>
+  </si>
+  <si>
+    <t>mode  26 :  611.751117  cm-1</t>
+  </si>
+  <si>
+    <t>mode  27 :  568.961890  cm-1</t>
+  </si>
+  <si>
+    <t>mode  28 :  520.669148  cm-1</t>
+  </si>
+  <si>
+    <t>mode  29 :  441.818992  cm-1</t>
+  </si>
+  <si>
+    <t>mode  30 :  408.836174  cm-1</t>
+  </si>
+  <si>
+    <t>mode  31 :  329.738393  cm-1</t>
+  </si>
+  <si>
+    <t>mode  32 :  291.189985  cm-1</t>
+  </si>
+  <si>
+    <t>mode  33 :  278.267457  cm-1</t>
+  </si>
+  <si>
+    <t>mode  34 :  267.597205  cm-1</t>
+  </si>
+  <si>
+    <t>mode  35 :  241.226001  cm-1</t>
+  </si>
+  <si>
+    <t>mode  36 :  144.380422  cm-1</t>
+  </si>
+  <si>
+    <t>mode  37 :  128.451860  cm-1</t>
+  </si>
+  <si>
+    <t>mode  38 :  101.248164  cm-1</t>
+  </si>
+  <si>
+    <t>i-mode 39 :  739.464303  cm-1</t>
+  </si>
+  <si>
+    <t>mode  1 :  3129.983871  cm-1</t>
+  </si>
+  <si>
+    <t>mode  2 :  3109.028587  cm-1</t>
+  </si>
+  <si>
+    <t>mode  3 :  3084.551557  cm-1</t>
+  </si>
+  <si>
+    <t>mode  4 :  2990.565230  cm-1</t>
+  </si>
+  <si>
+    <t>mode  5 :  2940.080336  cm-1</t>
+  </si>
+  <si>
+    <t>mode  6 :  1408.619944  cm-1</t>
+  </si>
+  <si>
+    <t>mode  7 :  1321.688109  cm-1</t>
+  </si>
+  <si>
+    <t>mode  8 :  1308.530275  cm-1</t>
+  </si>
+  <si>
+    <t>mode  9 :  1278.359514  cm-1</t>
+  </si>
+  <si>
+    <t>mode  10 :  1275.689064  cm-1</t>
+  </si>
+  <si>
+    <t>mode  11 :  1223.419587  cm-1</t>
+  </si>
+  <si>
+    <t>mode  12 :  1142.822247  cm-1</t>
+  </si>
+  <si>
+    <t>mode  13 :  1088.277045  cm-1</t>
+  </si>
+  <si>
+    <t>mode  14 :  1037.429191  cm-1</t>
+  </si>
+  <si>
+    <t>mode  15 :  985.133611  cm-1</t>
+  </si>
+  <si>
+    <t>mode  16 :  952.481045  cm-1</t>
+  </si>
+  <si>
+    <t>mode  17 :  949.949637  cm-1</t>
+  </si>
+  <si>
+    <t>mode  18 :  888.846780  cm-1</t>
+  </si>
+  <si>
+    <t>mode  19 :  847.026746  cm-1</t>
+  </si>
+  <si>
+    <t>mode  20 :  827.105721  cm-1</t>
+  </si>
+  <si>
+    <t>mode  21 :  774.589286  cm-1</t>
+  </si>
+  <si>
+    <t>mode  22 :  758.600267  cm-1</t>
+  </si>
+  <si>
+    <t>mode  23 :  748.411393  cm-1</t>
+  </si>
+  <si>
+    <t>mode  24 :  729.951302  cm-1</t>
+  </si>
+  <si>
+    <t>mode  25 :  575.439690  cm-1</t>
+  </si>
+  <si>
+    <t>mode  26 :  538.634360  cm-1</t>
+  </si>
+  <si>
+    <t>mode  27 :  422.190914  cm-1</t>
+  </si>
+  <si>
+    <t>mode  28 :  404.238257  cm-1</t>
+  </si>
+  <si>
+    <t>mode  29 :  345.254103  cm-1</t>
+  </si>
+  <si>
+    <t>mode  30 :  331.112414  cm-1</t>
+  </si>
+  <si>
+    <t>mode  31 :  305.004328  cm-1</t>
+  </si>
+  <si>
+    <t>mode  32 :  279.385296  cm-1</t>
+  </si>
+  <si>
+    <t>mode  33 :  261.296249  cm-1</t>
+  </si>
+  <si>
+    <t>mode  34 :  129.041720  cm-1</t>
+  </si>
+  <si>
+    <t>mode  35 :  121.320259  cm-1</t>
+  </si>
+  <si>
+    <t>i-mode  36 :  502.061226  cm-1</t>
+  </si>
+  <si>
+    <t>mode  1 :  1802.112745  cm-1</t>
+  </si>
+  <si>
+    <t>mode  2 :  982.874653  cm-1</t>
+  </si>
+  <si>
+    <t>mode  3 :  596.561144  cm-1</t>
+  </si>
+  <si>
+    <t>mode  4 :  426.517130  cm-1</t>
+  </si>
+  <si>
+    <t>mode  5 :  293.809632  cm-1</t>
+  </si>
+  <si>
+    <t>i-mode 6 :  864.862511  cm-1</t>
+  </si>
+  <si>
+    <t>mode  1 :  3208.712920  cm-1</t>
+  </si>
+  <si>
+    <t>mode  2 :  1055.539214  cm-1</t>
+  </si>
+  <si>
+    <t>mode  3 :  397.932706  cm-1</t>
+  </si>
+  <si>
+    <t>mode  4 :  385.101219  cm-1</t>
+  </si>
+  <si>
+    <t>i-mode 6 :  182.898647  cm-1</t>
+  </si>
+  <si>
+    <t>mode 5 :  119.128866  cm-1</t>
+  </si>
+  <si>
+    <t>mode  1 :  2207.076367  cm-1</t>
+  </si>
+  <si>
+    <t>mode  2 :  1537.586102  cm-1</t>
+  </si>
+  <si>
+    <t>mode  3 :  747.836676  cm-1</t>
+  </si>
+  <si>
+    <t>mode  4 :  303.712240  cm-1</t>
+  </si>
+  <si>
+    <t>mode  5 :  186.971460  cm-1</t>
+  </si>
+  <si>
+    <t>i-mode 6 :  160.237737  cm-1</t>
+  </si>
+  <si>
+    <t>mode  1 :  3206.717875  cm-1</t>
+  </si>
+  <si>
+    <t>mode  2 :  3190.581969  cm-1</t>
+  </si>
+  <si>
+    <t>mode  3 :  3176.491296  cm-1</t>
+  </si>
+  <si>
+    <t>mode  4 :  3009.713151  cm-1</t>
+  </si>
+  <si>
+    <t>mode  5 :  2932.959957  cm-1</t>
+  </si>
+  <si>
+    <t>mode  6 :  1554.756075  cm-1</t>
+  </si>
+  <si>
+    <t>mode  7 :  1454.213918  cm-1</t>
+  </si>
+  <si>
+    <t>mode  8 :  1422.039783  cm-1</t>
+  </si>
+  <si>
+    <t>mode  9 :  1382.912962  cm-1</t>
+  </si>
+  <si>
+    <t>mode  10 :  1295.725151  cm-1</t>
+  </si>
+  <si>
+    <t>mode  11 :  1231.401296  cm-1</t>
+  </si>
+  <si>
+    <t>mode  12 :  1219.757518  cm-1</t>
+  </si>
+  <si>
+    <t>mode  13 :  1149.186421  cm-1</t>
+  </si>
+  <si>
+    <t>mode  14 :  1132.849707  cm-1</t>
+  </si>
+  <si>
+    <t>mode  15 :  1074.800344  cm-1</t>
+  </si>
+  <si>
+    <t>mode  16 :  1016.573248  cm-1</t>
+  </si>
+  <si>
+    <t>mode  17 :  989.674377  cm-1</t>
+  </si>
+  <si>
+    <t>mode  18 :  945.406589  cm-1</t>
+  </si>
+  <si>
+    <t>mode  19 :  905.153590  cm-1</t>
+  </si>
+  <si>
+    <t>mode  20 :  889.846887  cm-1</t>
+  </si>
+  <si>
+    <t>mode  21 :  874.449601  cm-1</t>
+  </si>
+  <si>
+    <t>mode  22 :  858.419846  cm-1</t>
+  </si>
+  <si>
+    <t>mode  23 :  791.044222  cm-1</t>
+  </si>
+  <si>
+    <t>mode  24 :  722.739510  cm-1</t>
+  </si>
+  <si>
+    <t>mode  25 :  704.283677  cm-1</t>
+  </si>
+  <si>
+    <t>mode  26 :  645.308665  cm-1</t>
+  </si>
+  <si>
+    <t>mode  27 :  597.276092  cm-1</t>
+  </si>
+  <si>
+    <t>mode  28 :  461.324071  cm-1</t>
+  </si>
+  <si>
+    <t>mode  29 :  395.068504  cm-1</t>
+  </si>
+  <si>
+    <t>mode  30 :  318.385528  cm-1</t>
+  </si>
+  <si>
+    <t>mode  31 :  232.467184  cm-1</t>
+  </si>
+  <si>
+    <t>mode  32 :  185.231909  cm-1</t>
+  </si>
+  <si>
+    <t>mode  33 :  152.464337  cm-1</t>
+  </si>
+  <si>
+    <t>mode  34 :  95.344985  cm-1</t>
+  </si>
+  <si>
+    <t>mode  35 :  88.526537  cm-1</t>
+  </si>
+  <si>
+    <t>mode  36 :  78.232375  cm-1</t>
+  </si>
+  <si>
+    <t>mode  37 :  38.149395  cm-1</t>
+  </si>
+  <si>
+    <t>i-mode 39 :  1079.027374  cm-1</t>
+  </si>
+  <si>
+    <t>mode 38 :  25.658954  cm-1</t>
+  </si>
+  <si>
+    <t>mode 35 :  13.352472  cm-1</t>
+  </si>
+  <si>
+    <t>Cu3Ni1</t>
+  </si>
+  <si>
+    <t>Cu2Ni2</t>
+  </si>
+  <si>
+    <t>Cu1Ni3</t>
+  </si>
+  <si>
+    <t>Cu3Co1</t>
+  </si>
+  <si>
+    <t>Cu2Co2</t>
+  </si>
+  <si>
+    <t>Cu1Co3</t>
+  </si>
+  <si>
+    <t>Cu3Pt1</t>
+  </si>
+  <si>
+    <t>Cu2Pt2</t>
+  </si>
+  <si>
+    <t>Cu1Pt3</t>
+  </si>
+  <si>
+    <t>Cu3Cr1</t>
+  </si>
+  <si>
+    <t>Cu2Cr2</t>
+  </si>
+  <si>
+    <t>Cu1Cr3</t>
+  </si>
+  <si>
+    <t>Cu3Pd1</t>
+  </si>
+  <si>
+    <t>Cu2Pd2</t>
+  </si>
+  <si>
+    <t>Cu1Pd3</t>
+  </si>
+  <si>
+    <t>bulk alloys</t>
+  </si>
+  <si>
+    <t>CuSAA</t>
+  </si>
+  <si>
+    <t>Cr</t>
+  </si>
+  <si>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>Ga</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Mn</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <t>Sn</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Zn</t>
   </si>
 </sst>
 </file>
@@ -521,11 +3067,3582 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9AE824-68BF-CF4F-8DAE-F4BF6C6BE610}">
+  <dimension ref="A1:Y19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3">
+        <v>-6.7701867</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6">
+        <v>-186.24196000000001</v>
+      </c>
+      <c r="F2" s="6">
+        <v>-259.01</v>
+      </c>
+      <c r="G2" s="6">
+        <v>-189.46</v>
+      </c>
+      <c r="H2" s="6">
+        <v>-262.23</v>
+      </c>
+      <c r="I2" s="6">
+        <v>-262.62</v>
+      </c>
+      <c r="J2" s="6">
+        <v>-266.64999999999998</v>
+      </c>
+      <c r="K2" s="6">
+        <v>-192.11621</v>
+      </c>
+      <c r="L2" s="6">
+        <v>-261.75695999999999</v>
+      </c>
+      <c r="M2" s="6">
+        <v>-261.73</v>
+      </c>
+      <c r="N2" s="6">
+        <v>-265.38195999999999</v>
+      </c>
+      <c r="O2" s="6">
+        <v>-265.54000000000002</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>855</v>
+      </c>
+      <c r="R2" s="6">
+        <v>-271.07690000000002</v>
+      </c>
+      <c r="S2" s="6">
+        <v>-344.26724000000002</v>
+      </c>
+      <c r="T2" s="6">
+        <v>-275.04818999999998</v>
+      </c>
+      <c r="U2" s="3"/>
+      <c r="V2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="6">
+        <v>-246.52708093999999</v>
+      </c>
+      <c r="X2" s="6">
+        <v>-319.42</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>-250.21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3">
+        <v>-14.218188</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6">
+        <v>-170.7294</v>
+      </c>
+      <c r="F3" s="6">
+        <v>-243.62</v>
+      </c>
+      <c r="G3" s="6">
+        <v>-174.07</v>
+      </c>
+      <c r="H3" s="6">
+        <v>-247.2</v>
+      </c>
+      <c r="I3" s="6">
+        <v>-246.64</v>
+      </c>
+      <c r="J3" s="6">
+        <v>-251.41</v>
+      </c>
+      <c r="K3" s="6">
+        <v>-176.75890000000001</v>
+      </c>
+      <c r="L3" s="6">
+        <v>-246.67</v>
+      </c>
+      <c r="M3" s="6">
+        <v>-246.42</v>
+      </c>
+      <c r="N3" s="6">
+        <v>-250.14</v>
+      </c>
+      <c r="O3" s="6">
+        <v>-249.51</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>856</v>
+      </c>
+      <c r="R3" s="6">
+        <v>-293.74610000000001</v>
+      </c>
+      <c r="S3" s="6">
+        <v>-367.56385</v>
+      </c>
+      <c r="T3" s="6">
+        <v>-297.84510999999998</v>
+      </c>
+      <c r="U3" s="3"/>
+      <c r="V3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W3" s="6">
+        <v>-247.62890485</v>
+      </c>
+      <c r="X3" s="6">
+        <v>-320.52999999999997</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>-251.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-72.005287999999993</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6">
+        <v>-442.87209999999999</v>
+      </c>
+      <c r="F4" s="6">
+        <v>-516.71253999999999</v>
+      </c>
+      <c r="G4" s="6">
+        <v>-446.89380999999997</v>
+      </c>
+      <c r="H4" s="6">
+        <v>-520.17092000000002</v>
+      </c>
+      <c r="I4" s="6">
+        <v>-520.58469000000002</v>
+      </c>
+      <c r="J4" s="6">
+        <v>-524.08316000000002</v>
+      </c>
+      <c r="K4" s="6">
+        <v>-449.82499999999999</v>
+      </c>
+      <c r="L4" s="3">
+        <v>-520.07709999999997</v>
+      </c>
+      <c r="M4" s="6">
+        <v>-520.15710000000001</v>
+      </c>
+      <c r="N4" s="6">
+        <v>-523.39210000000003</v>
+      </c>
+      <c r="O4" s="6">
+        <v>-523.46210000000008</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>857</v>
+      </c>
+      <c r="R4" s="6">
+        <v>-319.23099000000002</v>
+      </c>
+      <c r="S4" s="6">
+        <v>-393.23129</v>
+      </c>
+      <c r="T4" s="6">
+        <v>-323.37369000000001</v>
+      </c>
+      <c r="U4" s="3"/>
+      <c r="V4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W4" s="6">
+        <v>-249.27203797999999</v>
+      </c>
+      <c r="X4" s="6">
+        <v>-322.89</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>-253.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="3">
+        <v>-79.535273000000004</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="6">
+        <v>-185.34344999999999</v>
+      </c>
+      <c r="F5" s="6">
+        <v>-258.27</v>
+      </c>
+      <c r="G5" s="6">
+        <v>-189.06</v>
+      </c>
+      <c r="H5" s="6">
+        <v>-261.82</v>
+      </c>
+      <c r="I5" s="6">
+        <v>-262.39999999999998</v>
+      </c>
+      <c r="J5" s="6">
+        <v>-265.95</v>
+      </c>
+      <c r="K5" s="6">
+        <v>-191.89026999999999</v>
+      </c>
+      <c r="L5" s="6">
+        <v>-261.51</v>
+      </c>
+      <c r="M5" s="6">
+        <v>-261.63</v>
+      </c>
+      <c r="N5" s="6">
+        <v>-265.27999999999997</v>
+      </c>
+      <c r="O5" s="6">
+        <v>-264.94</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>858</v>
+      </c>
+      <c r="R5" s="6">
+        <v>-284.58787999999998</v>
+      </c>
+      <c r="S5" s="6">
+        <v>-358.36741999999998</v>
+      </c>
+      <c r="T5" s="6">
+        <v>-288.12705</v>
+      </c>
+      <c r="V5" t="s">
+        <v>872</v>
+      </c>
+      <c r="W5" s="6">
+        <v>-250.82061906999999</v>
+      </c>
+      <c r="X5" s="6">
+        <v>-325.07776280000002</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>-254.88202183999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6">
+        <v>-570.63055999999995</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-644.55987000000005</v>
+      </c>
+      <c r="G6" s="6">
+        <v>-574.44380999999998</v>
+      </c>
+      <c r="H6" s="6">
+        <v>-648.42376000000002</v>
+      </c>
+      <c r="I6" s="6">
+        <v>-648.28844000000004</v>
+      </c>
+      <c r="J6" s="6">
+        <v>-652.28799000000004</v>
+      </c>
+      <c r="K6" s="6">
+        <v>-577.29995999999994</v>
+      </c>
+      <c r="L6" s="6">
+        <v>-647.87555999999995</v>
+      </c>
+      <c r="M6" s="6">
+        <v>-647.82555999999988</v>
+      </c>
+      <c r="N6" s="6">
+        <v>-651.47055999999986</v>
+      </c>
+      <c r="O6" s="6">
+        <v>-651.65055999999993</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>859</v>
+      </c>
+      <c r="R6" s="6">
+        <v>-333.25443999999999</v>
+      </c>
+      <c r="S6" s="6">
+        <v>-406.76312999999999</v>
+      </c>
+      <c r="T6" s="6">
+        <v>-336.75051999999999</v>
+      </c>
+      <c r="V6" t="s">
+        <v>873</v>
+      </c>
+      <c r="W6" s="6">
+        <v>-249.71613595999901</v>
+      </c>
+      <c r="X6" s="6">
+        <v>-323.52</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>-253.84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6">
+        <v>-347.59167000000002</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-421.44</v>
+      </c>
+      <c r="G7" s="6">
+        <v>-351.64</v>
+      </c>
+      <c r="H7" s="6">
+        <v>-424.88</v>
+      </c>
+      <c r="I7" s="6">
+        <v>-425.15</v>
+      </c>
+      <c r="J7" s="6">
+        <v>-428.88</v>
+      </c>
+      <c r="K7" s="6">
+        <v>-354.58372000000003</v>
+      </c>
+      <c r="L7" s="6">
+        <v>-424.81666999999999</v>
+      </c>
+      <c r="M7" s="6">
+        <v>-424.80333999999999</v>
+      </c>
+      <c r="N7" s="6">
+        <v>-428.16167000000002</v>
+      </c>
+      <c r="O7" s="6">
+        <v>-428.04167000000001</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>860</v>
+      </c>
+      <c r="R7" s="6">
+        <v>-386.44062000000002</v>
+      </c>
+      <c r="S7" s="6">
+        <v>-460.25841000000003</v>
+      </c>
+      <c r="T7" s="6">
+        <v>-390.55993000000001</v>
+      </c>
+      <c r="V7" t="s">
+        <v>874</v>
+      </c>
+      <c r="W7" s="6">
+        <v>-247.1784098</v>
+      </c>
+      <c r="X7" s="6">
+        <v>-320.05</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>-250.78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="6">
+        <v>-257.21478000000002</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-330.91</v>
+      </c>
+      <c r="G8" s="6">
+        <v>-261.25</v>
+      </c>
+      <c r="H8" s="6">
+        <v>-334.89</v>
+      </c>
+      <c r="I8" s="6">
+        <v>-334.28</v>
+      </c>
+      <c r="J8" s="6">
+        <v>-338.54</v>
+      </c>
+      <c r="K8" s="6">
+        <v>-264.18257050000005</v>
+      </c>
+      <c r="L8" s="6">
+        <v>-334.17</v>
+      </c>
+      <c r="M8" s="6">
+        <v>-333.93</v>
+      </c>
+      <c r="N8" s="6">
+        <v>-337.9</v>
+      </c>
+      <c r="O8" s="6">
+        <v>-337.63</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>861</v>
+      </c>
+      <c r="R8" s="6">
+        <v>-297.97915999999998</v>
+      </c>
+      <c r="S8" s="6">
+        <v>-371.12839000000002</v>
+      </c>
+      <c r="T8" s="6">
+        <v>-301.87603000000001</v>
+      </c>
+      <c r="V8" t="s">
+        <v>875</v>
+      </c>
+      <c r="W8" s="6">
+        <v>-246.68873065</v>
+      </c>
+      <c r="X8" s="6">
+        <v>-319.57</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>-250.27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6">
+        <v>-304.98424999999997</v>
+      </c>
+      <c r="F9" s="6">
+        <v>-378.95</v>
+      </c>
+      <c r="G9" s="6">
+        <v>-308.93</v>
+      </c>
+      <c r="H9" s="6">
+        <v>-382.8</v>
+      </c>
+      <c r="I9" s="6">
+        <v>-382.41</v>
+      </c>
+      <c r="J9" s="6">
+        <v>-386.94</v>
+      </c>
+      <c r="K9" s="6">
+        <v>-311.83441499999998</v>
+      </c>
+      <c r="L9" s="6">
+        <v>-382.41</v>
+      </c>
+      <c r="M9" s="6">
+        <v>-382.19</v>
+      </c>
+      <c r="N9" s="6">
+        <v>-386.07</v>
+      </c>
+      <c r="O9" s="6">
+        <v>-385.71</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>862</v>
+      </c>
+      <c r="R9" s="6">
+        <v>-337.15728000000001</v>
+      </c>
+      <c r="S9" s="6">
+        <v>-410.76173999999997</v>
+      </c>
+      <c r="T9" s="6">
+        <v>-341.14148</v>
+      </c>
+      <c r="V9" t="s">
+        <v>7</v>
+      </c>
+      <c r="W9" s="6">
+        <v>-252.06606213000001</v>
+      </c>
+      <c r="X9" s="6">
+        <v>-325.44</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>-256.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6">
+        <v>-349.83602000000002</v>
+      </c>
+      <c r="F10" s="6">
+        <v>-424.05</v>
+      </c>
+      <c r="G10" s="6">
+        <v>-353.82</v>
+      </c>
+      <c r="H10" s="6">
+        <v>-427.6</v>
+      </c>
+      <c r="I10" s="6">
+        <v>-427.61</v>
+      </c>
+      <c r="J10" s="6">
+        <v>-431.45</v>
+      </c>
+      <c r="K10" s="6">
+        <v>-356.72726550000004</v>
+      </c>
+      <c r="L10" s="6">
+        <v>-427.47</v>
+      </c>
+      <c r="M10" s="6">
+        <v>-427.35</v>
+      </c>
+      <c r="N10" s="6">
+        <v>-430.75</v>
+      </c>
+      <c r="O10" s="6">
+        <v>-430.77</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>863</v>
+      </c>
+      <c r="R10" s="6">
+        <v>-377.14818000000002</v>
+      </c>
+      <c r="S10" s="6">
+        <v>-450.91579999999999</v>
+      </c>
+      <c r="T10" s="6">
+        <v>-380.92863</v>
+      </c>
+      <c r="V10" t="s">
+        <v>876</v>
+      </c>
+      <c r="W10" s="6">
+        <v>-250.11023571999999</v>
+      </c>
+      <c r="X10" s="6">
+        <v>-324.14999999999998</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>-254.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6">
+        <v>-583.99704999999994</v>
+      </c>
+      <c r="F11" s="6">
+        <v>-658.44093999999996</v>
+      </c>
+      <c r="G11" s="6">
+        <v>-588.08965000000001</v>
+      </c>
+      <c r="H11" s="6">
+        <v>-662.20947000000001</v>
+      </c>
+      <c r="I11" s="6">
+        <v>-662.34932000000003</v>
+      </c>
+      <c r="J11" s="6">
+        <v>-665.70829000000003</v>
+      </c>
+      <c r="K11" s="6">
+        <v>-591.03904999999997</v>
+      </c>
+      <c r="L11" s="6">
+        <v>-661.95204999999987</v>
+      </c>
+      <c r="M11" s="6">
+        <v>-661.93204999999989</v>
+      </c>
+      <c r="N11" s="6">
+        <v>-665.22704999999996</v>
+      </c>
+      <c r="O11" s="6">
+        <v>-665.14704999999992</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>864</v>
+      </c>
+      <c r="R11" s="6">
+        <v>-306.10467</v>
+      </c>
+      <c r="S11" s="6">
+        <v>-380.99</v>
+      </c>
+      <c r="T11" s="6">
+        <v>-310.02999999999997</v>
+      </c>
+      <c r="V11" t="s">
+        <v>877</v>
+      </c>
+      <c r="W11" s="6">
+        <v>-252.45449359</v>
+      </c>
+      <c r="X11" s="6">
+        <v>-326.76</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>-256.52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q12" t="s">
+        <v>865</v>
+      </c>
+      <c r="R12" s="6">
+        <v>-403.04253999999997</v>
+      </c>
+      <c r="S12" s="6">
+        <v>-479.06</v>
+      </c>
+      <c r="T12" s="6">
+        <v>-408.46</v>
+      </c>
+      <c r="V12" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="6">
+        <v>-248.5736426</v>
+      </c>
+      <c r="X12" s="6">
+        <v>-321.77</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>-252.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="P13" s="6"/>
+      <c r="Q13" t="s">
+        <v>866</v>
+      </c>
+      <c r="R13" s="6">
+        <v>-489.27944000000002</v>
+      </c>
+      <c r="S13" s="6">
+        <v>-565.47</v>
+      </c>
+      <c r="T13" s="6">
+        <v>-493.82</v>
+      </c>
+      <c r="V13" t="s">
+        <v>9</v>
+      </c>
+      <c r="W13" s="6">
+        <v>-249.43948289999901</v>
+      </c>
+      <c r="X13" s="6">
+        <v>-322.41000000000003</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>-253.17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="P14" s="6"/>
+      <c r="Q14" t="s">
+        <v>867</v>
+      </c>
+      <c r="R14" s="6">
+        <v>-281.12720249999899</v>
+      </c>
+      <c r="S14" s="6">
+        <v>-354.27370565000001</v>
+      </c>
+      <c r="T14" s="6">
+        <v>-284.97532452000002</v>
+      </c>
+      <c r="V14" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="6">
+        <v>-250.54766465999899</v>
+      </c>
+      <c r="X14" s="6">
+        <v>-323.51</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>-254.32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q15" t="s">
+        <v>868</v>
+      </c>
+      <c r="R15" s="6">
+        <v>-305.58177645000001</v>
+      </c>
+      <c r="S15" s="6">
+        <v>-378.93371893</v>
+      </c>
+      <c r="T15" s="6">
+        <v>-309.47104014000001</v>
+      </c>
+      <c r="V15" t="s">
+        <v>11</v>
+      </c>
+      <c r="W15" s="6">
+        <v>-250.81922426</v>
+      </c>
+      <c r="X15" s="6">
+        <v>-324.14999999999998</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>-254.79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q16" t="s">
+        <v>869</v>
+      </c>
+      <c r="R16" s="6">
+        <v>-327.87876412000003</v>
+      </c>
+      <c r="S16" s="6">
+        <v>-401.30444782000001</v>
+      </c>
+      <c r="T16" s="6">
+        <v>-331.78027415999998</v>
+      </c>
+      <c r="V16" t="s">
+        <v>12</v>
+      </c>
+      <c r="W16" s="6">
+        <v>-251.54480666000001</v>
+      </c>
+      <c r="X16" s="6">
+        <v>-325.26</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>-255.66</v>
+      </c>
+    </row>
+    <row r="17" spans="22:25" x14ac:dyDescent="0.2">
+      <c r="V17" t="s">
+        <v>878</v>
+      </c>
+      <c r="W17" s="6">
+        <v>-248.03299895999999</v>
+      </c>
+      <c r="X17" s="6">
+        <v>-320.89999999999998</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>-251.68</v>
+      </c>
+    </row>
+    <row r="18" spans="22:25" x14ac:dyDescent="0.2">
+      <c r="V18" t="s">
+        <v>879</v>
+      </c>
+      <c r="W18" s="6">
+        <v>-250.80096803999999</v>
+      </c>
+      <c r="X18" s="6">
+        <v>-325.33</v>
+      </c>
+      <c r="Y18" s="6">
+        <v>-254.83</v>
+      </c>
+    </row>
+    <row r="19" spans="22:25" x14ac:dyDescent="0.2">
+      <c r="V19" t="s">
+        <v>880</v>
+      </c>
+      <c r="W19" s="6">
+        <v>-244.96655878999999</v>
+      </c>
+      <c r="X19" s="6">
+        <v>-317.85000000000002</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>-248.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:N10">
+    <sortCondition ref="E1:E10"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5706BE3E-DEC5-A446-BA0E-F774004D977D}">
+  <dimension ref="C1:AF40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
+    <col min="6" max="6" width="32" customWidth="1"/>
+    <col min="7" max="7" width="31.83203125" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N1" t="s">
+        <v>326</v>
+      </c>
+      <c r="O1" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1" t="s">
+        <v>330</v>
+      </c>
+      <c r="U1" t="s">
+        <v>487</v>
+      </c>
+      <c r="V1" t="s">
+        <v>488</v>
+      </c>
+      <c r="W1" t="s">
+        <v>489</v>
+      </c>
+      <c r="X1" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>491</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="2" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" t="s">
+        <v>797</v>
+      </c>
+      <c r="I2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J2" t="s">
+        <v>251</v>
+      </c>
+      <c r="K2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L2" t="s">
+        <v>815</v>
+      </c>
+      <c r="N2" t="s">
+        <v>331</v>
+      </c>
+      <c r="O2" t="s">
+        <v>337</v>
+      </c>
+      <c r="P2" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>409</v>
+      </c>
+      <c r="R2" t="s">
+        <v>448</v>
+      </c>
+      <c r="U2" t="s">
+        <v>809</v>
+      </c>
+      <c r="V2" t="s">
+        <v>492</v>
+      </c>
+      <c r="W2" t="s">
+        <v>528</v>
+      </c>
+      <c r="X2" t="s">
+        <v>564</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>603</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>803</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>647</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>761</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>683</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="3" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" t="s">
+        <v>798</v>
+      </c>
+      <c r="I3" t="s">
+        <v>217</v>
+      </c>
+      <c r="J3" t="s">
+        <v>252</v>
+      </c>
+      <c r="K3" t="s">
+        <v>288</v>
+      </c>
+      <c r="L3" t="s">
+        <v>816</v>
+      </c>
+      <c r="N3" t="s">
+        <v>332</v>
+      </c>
+      <c r="O3" t="s">
+        <v>338</v>
+      </c>
+      <c r="P3" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>410</v>
+      </c>
+      <c r="R3" t="s">
+        <v>449</v>
+      </c>
+      <c r="U3" t="s">
+        <v>810</v>
+      </c>
+      <c r="V3" t="s">
+        <v>493</v>
+      </c>
+      <c r="W3" t="s">
+        <v>529</v>
+      </c>
+      <c r="X3" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>604</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>804</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>648</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>762</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>684</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="4" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H4" t="s">
+        <v>799</v>
+      </c>
+      <c r="I4" t="s">
+        <v>218</v>
+      </c>
+      <c r="J4" t="s">
+        <v>253</v>
+      </c>
+      <c r="K4" t="s">
+        <v>289</v>
+      </c>
+      <c r="L4" t="s">
+        <v>817</v>
+      </c>
+      <c r="N4" t="s">
+        <v>333</v>
+      </c>
+      <c r="O4" t="s">
+        <v>339</v>
+      </c>
+      <c r="P4" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>411</v>
+      </c>
+      <c r="R4" t="s">
+        <v>450</v>
+      </c>
+      <c r="U4" t="s">
+        <v>811</v>
+      </c>
+      <c r="V4" t="s">
+        <v>494</v>
+      </c>
+      <c r="W4" t="s">
+        <v>530</v>
+      </c>
+      <c r="X4" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>605</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>805</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>649</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>763</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>685</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="5" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5" t="s">
+        <v>800</v>
+      </c>
+      <c r="I5" t="s">
+        <v>219</v>
+      </c>
+      <c r="J5" t="s">
+        <v>254</v>
+      </c>
+      <c r="K5" t="s">
+        <v>290</v>
+      </c>
+      <c r="L5" t="s">
+        <v>818</v>
+      </c>
+      <c r="N5" t="s">
+        <v>335</v>
+      </c>
+      <c r="O5" t="s">
+        <v>340</v>
+      </c>
+      <c r="P5" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>412</v>
+      </c>
+      <c r="R5" t="s">
+        <v>451</v>
+      </c>
+      <c r="U5" t="s">
+        <v>812</v>
+      </c>
+      <c r="V5" t="s">
+        <v>495</v>
+      </c>
+      <c r="W5" t="s">
+        <v>531</v>
+      </c>
+      <c r="X5" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>606</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>806</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>650</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>764</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>686</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="6" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H6" t="s">
+        <v>801</v>
+      </c>
+      <c r="I6" t="s">
+        <v>220</v>
+      </c>
+      <c r="J6" t="s">
+        <v>255</v>
+      </c>
+      <c r="K6" t="s">
+        <v>291</v>
+      </c>
+      <c r="L6" t="s">
+        <v>819</v>
+      </c>
+      <c r="N6" t="s">
+        <v>336</v>
+      </c>
+      <c r="O6" t="s">
+        <v>341</v>
+      </c>
+      <c r="P6" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>413</v>
+      </c>
+      <c r="R6" t="s">
+        <v>452</v>
+      </c>
+      <c r="U6" t="s">
+        <v>813</v>
+      </c>
+      <c r="V6" t="s">
+        <v>496</v>
+      </c>
+      <c r="W6" t="s">
+        <v>532</v>
+      </c>
+      <c r="X6" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>607</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>808</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>651</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>765</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>687</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="7" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" t="s">
+        <v>802</v>
+      </c>
+      <c r="I7" t="s">
+        <v>221</v>
+      </c>
+      <c r="J7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L7" t="s">
+        <v>820</v>
+      </c>
+      <c r="N7" t="s">
+        <v>334</v>
+      </c>
+      <c r="O7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P7" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>414</v>
+      </c>
+      <c r="R7" t="s">
+        <v>453</v>
+      </c>
+      <c r="U7" t="s">
+        <v>814</v>
+      </c>
+      <c r="V7" t="s">
+        <v>497</v>
+      </c>
+      <c r="W7" t="s">
+        <v>533</v>
+      </c>
+      <c r="X7" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>608</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>807</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>652</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>766</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>688</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="8" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" t="s">
+        <v>178</v>
+      </c>
+      <c r="I8" t="s">
+        <v>222</v>
+      </c>
+      <c r="J8" t="s">
+        <v>257</v>
+      </c>
+      <c r="K8" t="s">
+        <v>293</v>
+      </c>
+      <c r="L8" t="s">
+        <v>821</v>
+      </c>
+      <c r="O8" t="s">
+        <v>343</v>
+      </c>
+      <c r="P8" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>415</v>
+      </c>
+      <c r="R8" t="s">
+        <v>454</v>
+      </c>
+      <c r="V8" t="s">
+        <v>498</v>
+      </c>
+      <c r="W8" t="s">
+        <v>534</v>
+      </c>
+      <c r="X8" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>609</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>653</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>767</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>689</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="9" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" t="s">
+        <v>179</v>
+      </c>
+      <c r="I9" t="s">
+        <v>223</v>
+      </c>
+      <c r="J9" t="s">
+        <v>258</v>
+      </c>
+      <c r="K9" t="s">
+        <v>294</v>
+      </c>
+      <c r="L9" t="s">
+        <v>822</v>
+      </c>
+      <c r="O9" t="s">
+        <v>344</v>
+      </c>
+      <c r="P9" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>416</v>
+      </c>
+      <c r="R9" t="s">
+        <v>455</v>
+      </c>
+      <c r="V9" t="s">
+        <v>499</v>
+      </c>
+      <c r="W9" t="s">
+        <v>535</v>
+      </c>
+      <c r="X9" t="s">
+        <v>571</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>610</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>654</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>768</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>690</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="10" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" t="s">
+        <v>180</v>
+      </c>
+      <c r="I10" t="s">
+        <v>224</v>
+      </c>
+      <c r="J10" t="s">
+        <v>259</v>
+      </c>
+      <c r="K10" t="s">
+        <v>295</v>
+      </c>
+      <c r="L10" t="s">
+        <v>823</v>
+      </c>
+      <c r="O10" t="s">
+        <v>345</v>
+      </c>
+      <c r="P10" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>417</v>
+      </c>
+      <c r="R10" t="s">
+        <v>456</v>
+      </c>
+      <c r="V10" t="s">
+        <v>500</v>
+      </c>
+      <c r="W10" t="s">
+        <v>536</v>
+      </c>
+      <c r="X10" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>611</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>655</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>769</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>691</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="11" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" t="s">
+        <v>181</v>
+      </c>
+      <c r="I11" t="s">
+        <v>225</v>
+      </c>
+      <c r="J11" t="s">
+        <v>260</v>
+      </c>
+      <c r="K11" t="s">
+        <v>296</v>
+      </c>
+      <c r="L11" t="s">
+        <v>824</v>
+      </c>
+      <c r="O11" t="s">
+        <v>346</v>
+      </c>
+      <c r="P11" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>418</v>
+      </c>
+      <c r="R11" t="s">
+        <v>457</v>
+      </c>
+      <c r="V11" t="s">
+        <v>501</v>
+      </c>
+      <c r="W11" t="s">
+        <v>537</v>
+      </c>
+      <c r="X11" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>612</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>656</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>770</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>692</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="12" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I12" t="s">
+        <v>226</v>
+      </c>
+      <c r="J12" t="s">
+        <v>261</v>
+      </c>
+      <c r="K12" t="s">
+        <v>297</v>
+      </c>
+      <c r="L12" t="s">
+        <v>825</v>
+      </c>
+      <c r="O12" t="s">
+        <v>347</v>
+      </c>
+      <c r="P12" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>419</v>
+      </c>
+      <c r="R12" t="s">
+        <v>458</v>
+      </c>
+      <c r="V12" t="s">
+        <v>502</v>
+      </c>
+      <c r="W12" t="s">
+        <v>538</v>
+      </c>
+      <c r="X12" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>613</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>657</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>771</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>693</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="13" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" t="s">
+        <v>183</v>
+      </c>
+      <c r="I13" t="s">
+        <v>227</v>
+      </c>
+      <c r="J13" t="s">
+        <v>262</v>
+      </c>
+      <c r="K13" t="s">
+        <v>298</v>
+      </c>
+      <c r="L13" t="s">
+        <v>826</v>
+      </c>
+      <c r="O13" t="s">
+        <v>348</v>
+      </c>
+      <c r="P13" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>420</v>
+      </c>
+      <c r="R13" t="s">
+        <v>459</v>
+      </c>
+      <c r="V13" t="s">
+        <v>503</v>
+      </c>
+      <c r="W13" t="s">
+        <v>539</v>
+      </c>
+      <c r="X13" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>614</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>658</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>772</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>694</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="14" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>184</v>
+      </c>
+      <c r="I14" t="s">
+        <v>228</v>
+      </c>
+      <c r="J14" t="s">
+        <v>263</v>
+      </c>
+      <c r="K14" t="s">
+        <v>299</v>
+      </c>
+      <c r="L14" t="s">
+        <v>827</v>
+      </c>
+      <c r="O14" t="s">
+        <v>349</v>
+      </c>
+      <c r="P14" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>421</v>
+      </c>
+      <c r="R14" t="s">
+        <v>460</v>
+      </c>
+      <c r="V14" t="s">
+        <v>504</v>
+      </c>
+      <c r="W14" t="s">
+        <v>540</v>
+      </c>
+      <c r="X14" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>615</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>659</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>773</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>695</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="15" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" t="s">
+        <v>185</v>
+      </c>
+      <c r="I15" t="s">
+        <v>229</v>
+      </c>
+      <c r="J15" t="s">
+        <v>264</v>
+      </c>
+      <c r="K15" t="s">
+        <v>300</v>
+      </c>
+      <c r="L15" t="s">
+        <v>828</v>
+      </c>
+      <c r="O15" t="s">
+        <v>350</v>
+      </c>
+      <c r="P15" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>422</v>
+      </c>
+      <c r="R15" t="s">
+        <v>461</v>
+      </c>
+      <c r="V15" t="s">
+        <v>505</v>
+      </c>
+      <c r="W15" t="s">
+        <v>541</v>
+      </c>
+      <c r="X15" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>616</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>774</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>696</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="16" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" t="s">
+        <v>186</v>
+      </c>
+      <c r="I16" t="s">
+        <v>230</v>
+      </c>
+      <c r="J16" t="s">
+        <v>265</v>
+      </c>
+      <c r="K16" t="s">
+        <v>301</v>
+      </c>
+      <c r="L16" t="s">
+        <v>829</v>
+      </c>
+      <c r="O16" t="s">
+        <v>351</v>
+      </c>
+      <c r="P16" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>423</v>
+      </c>
+      <c r="R16" t="s">
+        <v>462</v>
+      </c>
+      <c r="V16" t="s">
+        <v>506</v>
+      </c>
+      <c r="W16" t="s">
+        <v>542</v>
+      </c>
+      <c r="X16" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>617</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>661</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>775</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>697</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="17" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>187</v>
+      </c>
+      <c r="I17" t="s">
+        <v>231</v>
+      </c>
+      <c r="J17" t="s">
+        <v>266</v>
+      </c>
+      <c r="K17" t="s">
+        <v>302</v>
+      </c>
+      <c r="L17" t="s">
+        <v>830</v>
+      </c>
+      <c r="O17" t="s">
+        <v>352</v>
+      </c>
+      <c r="P17" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>424</v>
+      </c>
+      <c r="R17" t="s">
+        <v>463</v>
+      </c>
+      <c r="V17" t="s">
+        <v>507</v>
+      </c>
+      <c r="W17" t="s">
+        <v>543</v>
+      </c>
+      <c r="X17" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>618</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>662</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>776</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>698</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="18" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" t="s">
+        <v>188</v>
+      </c>
+      <c r="I18" t="s">
+        <v>232</v>
+      </c>
+      <c r="J18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K18" t="s">
+        <v>303</v>
+      </c>
+      <c r="L18" t="s">
+        <v>831</v>
+      </c>
+      <c r="O18" t="s">
+        <v>353</v>
+      </c>
+      <c r="P18" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>425</v>
+      </c>
+      <c r="R18" t="s">
+        <v>464</v>
+      </c>
+      <c r="V18" t="s">
+        <v>508</v>
+      </c>
+      <c r="W18" t="s">
+        <v>544</v>
+      </c>
+      <c r="X18" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>619</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>663</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>777</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>699</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="19" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" t="s">
+        <v>189</v>
+      </c>
+      <c r="I19" t="s">
+        <v>233</v>
+      </c>
+      <c r="J19" t="s">
+        <v>268</v>
+      </c>
+      <c r="K19" t="s">
+        <v>304</v>
+      </c>
+      <c r="L19" t="s">
+        <v>832</v>
+      </c>
+      <c r="O19" t="s">
+        <v>354</v>
+      </c>
+      <c r="P19" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>426</v>
+      </c>
+      <c r="R19" t="s">
+        <v>465</v>
+      </c>
+      <c r="V19" t="s">
+        <v>509</v>
+      </c>
+      <c r="W19" t="s">
+        <v>545</v>
+      </c>
+      <c r="X19" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>620</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>664</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>778</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>700</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="20" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" t="s">
+        <v>190</v>
+      </c>
+      <c r="I20" t="s">
+        <v>234</v>
+      </c>
+      <c r="J20" t="s">
+        <v>269</v>
+      </c>
+      <c r="K20" t="s">
+        <v>305</v>
+      </c>
+      <c r="L20" t="s">
+        <v>833</v>
+      </c>
+      <c r="O20" t="s">
+        <v>355</v>
+      </c>
+      <c r="P20" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>427</v>
+      </c>
+      <c r="R20" t="s">
+        <v>466</v>
+      </c>
+      <c r="V20" t="s">
+        <v>510</v>
+      </c>
+      <c r="W20" t="s">
+        <v>546</v>
+      </c>
+      <c r="X20" t="s">
+        <v>582</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>621</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>665</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>779</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>701</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="21" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" t="s">
+        <v>191</v>
+      </c>
+      <c r="I21" t="s">
+        <v>235</v>
+      </c>
+      <c r="J21" t="s">
+        <v>270</v>
+      </c>
+      <c r="K21" t="s">
+        <v>306</v>
+      </c>
+      <c r="L21" t="s">
+        <v>834</v>
+      </c>
+      <c r="O21" t="s">
+        <v>356</v>
+      </c>
+      <c r="P21" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>428</v>
+      </c>
+      <c r="R21" t="s">
+        <v>467</v>
+      </c>
+      <c r="V21" t="s">
+        <v>511</v>
+      </c>
+      <c r="W21" t="s">
+        <v>547</v>
+      </c>
+      <c r="X21" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>622</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>666</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>780</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>702</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="22" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" t="s">
+        <v>192</v>
+      </c>
+      <c r="I22" t="s">
+        <v>236</v>
+      </c>
+      <c r="J22" t="s">
+        <v>271</v>
+      </c>
+      <c r="K22" t="s">
+        <v>307</v>
+      </c>
+      <c r="L22" t="s">
+        <v>835</v>
+      </c>
+      <c r="O22" t="s">
+        <v>357</v>
+      </c>
+      <c r="P22" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>429</v>
+      </c>
+      <c r="R22" t="s">
+        <v>468</v>
+      </c>
+      <c r="V22" t="s">
+        <v>512</v>
+      </c>
+      <c r="W22" t="s">
+        <v>548</v>
+      </c>
+      <c r="X22" t="s">
+        <v>584</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>623</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>667</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>781</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>703</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="23" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" t="s">
+        <v>193</v>
+      </c>
+      <c r="I23" t="s">
+        <v>237</v>
+      </c>
+      <c r="J23" t="s">
+        <v>272</v>
+      </c>
+      <c r="K23" t="s">
+        <v>308</v>
+      </c>
+      <c r="L23" t="s">
+        <v>836</v>
+      </c>
+      <c r="O23" t="s">
+        <v>358</v>
+      </c>
+      <c r="P23" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>430</v>
+      </c>
+      <c r="R23" t="s">
+        <v>469</v>
+      </c>
+      <c r="V23" t="s">
+        <v>513</v>
+      </c>
+      <c r="W23" t="s">
+        <v>549</v>
+      </c>
+      <c r="X23" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>624</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>668</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>782</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>704</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="24" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" t="s">
+        <v>194</v>
+      </c>
+      <c r="I24" t="s">
+        <v>238</v>
+      </c>
+      <c r="J24" t="s">
+        <v>273</v>
+      </c>
+      <c r="K24" t="s">
+        <v>309</v>
+      </c>
+      <c r="L24" t="s">
+        <v>837</v>
+      </c>
+      <c r="O24" t="s">
+        <v>359</v>
+      </c>
+      <c r="P24" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>431</v>
+      </c>
+      <c r="R24" t="s">
+        <v>470</v>
+      </c>
+      <c r="V24" t="s">
+        <v>514</v>
+      </c>
+      <c r="W24" t="s">
+        <v>550</v>
+      </c>
+      <c r="X24" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>625</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>669</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>783</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>705</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="25" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" t="s">
+        <v>155</v>
+      </c>
+      <c r="G25" t="s">
+        <v>195</v>
+      </c>
+      <c r="I25" t="s">
+        <v>239</v>
+      </c>
+      <c r="J25" t="s">
+        <v>274</v>
+      </c>
+      <c r="K25" t="s">
+        <v>310</v>
+      </c>
+      <c r="L25" t="s">
+        <v>838</v>
+      </c>
+      <c r="O25" t="s">
+        <v>360</v>
+      </c>
+      <c r="P25" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>432</v>
+      </c>
+      <c r="R25" t="s">
+        <v>471</v>
+      </c>
+      <c r="V25" t="s">
+        <v>515</v>
+      </c>
+      <c r="W25" t="s">
+        <v>551</v>
+      </c>
+      <c r="X25" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>626</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>670</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>784</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>706</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="26" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" t="s">
+        <v>196</v>
+      </c>
+      <c r="I26" t="s">
+        <v>240</v>
+      </c>
+      <c r="J26" t="s">
+        <v>275</v>
+      </c>
+      <c r="K26" t="s">
+        <v>311</v>
+      </c>
+      <c r="L26" t="s">
+        <v>839</v>
+      </c>
+      <c r="O26" t="s">
+        <v>361</v>
+      </c>
+      <c r="P26" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>433</v>
+      </c>
+      <c r="R26" t="s">
+        <v>472</v>
+      </c>
+      <c r="V26" t="s">
+        <v>516</v>
+      </c>
+      <c r="W26" t="s">
+        <v>552</v>
+      </c>
+      <c r="X26" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>627</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>671</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>785</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>707</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="27" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" t="s">
+        <v>157</v>
+      </c>
+      <c r="G27" t="s">
+        <v>197</v>
+      </c>
+      <c r="I27" t="s">
+        <v>241</v>
+      </c>
+      <c r="J27" t="s">
+        <v>276</v>
+      </c>
+      <c r="K27" t="s">
+        <v>312</v>
+      </c>
+      <c r="L27" t="s">
+        <v>840</v>
+      </c>
+      <c r="O27" t="s">
+        <v>362</v>
+      </c>
+      <c r="P27" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>434</v>
+      </c>
+      <c r="R27" t="s">
+        <v>473</v>
+      </c>
+      <c r="V27" t="s">
+        <v>517</v>
+      </c>
+      <c r="W27" t="s">
+        <v>553</v>
+      </c>
+      <c r="X27" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>628</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>672</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>786</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>708</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="28" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" t="s">
+        <v>158</v>
+      </c>
+      <c r="G28" t="s">
+        <v>198</v>
+      </c>
+      <c r="I28" t="s">
+        <v>242</v>
+      </c>
+      <c r="J28" t="s">
+        <v>277</v>
+      </c>
+      <c r="K28" t="s">
+        <v>313</v>
+      </c>
+      <c r="L28" t="s">
+        <v>841</v>
+      </c>
+      <c r="O28" t="s">
+        <v>363</v>
+      </c>
+      <c r="P28" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>435</v>
+      </c>
+      <c r="R28" t="s">
+        <v>474</v>
+      </c>
+      <c r="V28" t="s">
+        <v>518</v>
+      </c>
+      <c r="W28" t="s">
+        <v>554</v>
+      </c>
+      <c r="X28" t="s">
+        <v>590</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>629</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>673</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>787</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>709</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="29" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" t="s">
+        <v>199</v>
+      </c>
+      <c r="I29" t="s">
+        <v>243</v>
+      </c>
+      <c r="J29" t="s">
+        <v>278</v>
+      </c>
+      <c r="K29" t="s">
+        <v>314</v>
+      </c>
+      <c r="L29" t="s">
+        <v>842</v>
+      </c>
+      <c r="O29" t="s">
+        <v>364</v>
+      </c>
+      <c r="P29" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>436</v>
+      </c>
+      <c r="R29" t="s">
+        <v>475</v>
+      </c>
+      <c r="V29" t="s">
+        <v>519</v>
+      </c>
+      <c r="W29" t="s">
+        <v>555</v>
+      </c>
+      <c r="X29" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>630</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>674</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>788</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>710</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="30" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" t="s">
+        <v>160</v>
+      </c>
+      <c r="G30" t="s">
+        <v>200</v>
+      </c>
+      <c r="I30" t="s">
+        <v>244</v>
+      </c>
+      <c r="J30" t="s">
+        <v>279</v>
+      </c>
+      <c r="K30" t="s">
+        <v>315</v>
+      </c>
+      <c r="L30" t="s">
+        <v>843</v>
+      </c>
+      <c r="O30" t="s">
+        <v>365</v>
+      </c>
+      <c r="P30" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>437</v>
+      </c>
+      <c r="R30" t="s">
+        <v>476</v>
+      </c>
+      <c r="V30" t="s">
+        <v>520</v>
+      </c>
+      <c r="W30" t="s">
+        <v>556</v>
+      </c>
+      <c r="X30" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>631</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>675</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>711</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="31" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" t="s">
+        <v>161</v>
+      </c>
+      <c r="G31" t="s">
+        <v>201</v>
+      </c>
+      <c r="I31" t="s">
+        <v>245</v>
+      </c>
+      <c r="J31" t="s">
+        <v>280</v>
+      </c>
+      <c r="K31" t="s">
+        <v>316</v>
+      </c>
+      <c r="L31" t="s">
+        <v>844</v>
+      </c>
+      <c r="O31" t="s">
+        <v>366</v>
+      </c>
+      <c r="P31" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>438</v>
+      </c>
+      <c r="R31" t="s">
+        <v>477</v>
+      </c>
+      <c r="V31" t="s">
+        <v>521</v>
+      </c>
+      <c r="W31" t="s">
+        <v>557</v>
+      </c>
+      <c r="X31" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>632</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>676</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>790</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>712</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="32" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" t="s">
+        <v>202</v>
+      </c>
+      <c r="I32" t="s">
+        <v>246</v>
+      </c>
+      <c r="J32" t="s">
+        <v>281</v>
+      </c>
+      <c r="K32" t="s">
+        <v>317</v>
+      </c>
+      <c r="L32" t="s">
+        <v>845</v>
+      </c>
+      <c r="O32" t="s">
+        <v>367</v>
+      </c>
+      <c r="P32" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>439</v>
+      </c>
+      <c r="R32" t="s">
+        <v>478</v>
+      </c>
+      <c r="V32" t="s">
+        <v>522</v>
+      </c>
+      <c r="W32" t="s">
+        <v>558</v>
+      </c>
+      <c r="X32" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>677</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>791</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>713</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="33" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" t="s">
+        <v>163</v>
+      </c>
+      <c r="G33" t="s">
+        <v>203</v>
+      </c>
+      <c r="I33" t="s">
+        <v>247</v>
+      </c>
+      <c r="J33" t="s">
+        <v>282</v>
+      </c>
+      <c r="K33" t="s">
+        <v>318</v>
+      </c>
+      <c r="L33" t="s">
+        <v>846</v>
+      </c>
+      <c r="O33" t="s">
+        <v>368</v>
+      </c>
+      <c r="P33" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>440</v>
+      </c>
+      <c r="R33" t="s">
+        <v>479</v>
+      </c>
+      <c r="V33" t="s">
+        <v>523</v>
+      </c>
+      <c r="W33" t="s">
+        <v>559</v>
+      </c>
+      <c r="X33" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>678</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>792</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>714</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="34" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" t="s">
+        <v>164</v>
+      </c>
+      <c r="G34" t="s">
+        <v>204</v>
+      </c>
+      <c r="I34" t="s">
+        <v>248</v>
+      </c>
+      <c r="J34" t="s">
+        <v>283</v>
+      </c>
+      <c r="K34" t="s">
+        <v>319</v>
+      </c>
+      <c r="L34" t="s">
+        <v>847</v>
+      </c>
+      <c r="O34" t="s">
+        <v>369</v>
+      </c>
+      <c r="P34" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>441</v>
+      </c>
+      <c r="R34" t="s">
+        <v>480</v>
+      </c>
+      <c r="V34" t="s">
+        <v>524</v>
+      </c>
+      <c r="W34" t="s">
+        <v>560</v>
+      </c>
+      <c r="X34" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>635</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>679</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>793</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>715</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="35" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" t="s">
+        <v>165</v>
+      </c>
+      <c r="G35" t="s">
+        <v>205</v>
+      </c>
+      <c r="I35" t="s">
+        <v>249</v>
+      </c>
+      <c r="J35" t="s">
+        <v>284</v>
+      </c>
+      <c r="K35" t="s">
+        <v>320</v>
+      </c>
+      <c r="L35" t="s">
+        <v>848</v>
+      </c>
+      <c r="O35" t="s">
+        <v>370</v>
+      </c>
+      <c r="P35" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>442</v>
+      </c>
+      <c r="R35" t="s">
+        <v>481</v>
+      </c>
+      <c r="V35" t="s">
+        <v>525</v>
+      </c>
+      <c r="W35" t="s">
+        <v>561</v>
+      </c>
+      <c r="X35" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>636</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>680</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>794</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>716</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="36" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" t="s">
+        <v>166</v>
+      </c>
+      <c r="G36" t="s">
+        <v>206</v>
+      </c>
+      <c r="I36" t="s">
+        <v>854</v>
+      </c>
+      <c r="J36" t="s">
+        <v>285</v>
+      </c>
+      <c r="K36" t="s">
+        <v>321</v>
+      </c>
+      <c r="L36" t="s">
+        <v>849</v>
+      </c>
+      <c r="O36" t="s">
+        <v>371</v>
+      </c>
+      <c r="P36" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>443</v>
+      </c>
+      <c r="R36" t="s">
+        <v>482</v>
+      </c>
+      <c r="V36" t="s">
+        <v>526</v>
+      </c>
+      <c r="W36" t="s">
+        <v>562</v>
+      </c>
+      <c r="X36" t="s">
+        <v>598</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>637</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>681</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>795</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>717</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="37" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" t="s">
+        <v>167</v>
+      </c>
+      <c r="G37" t="s">
+        <v>207</v>
+      </c>
+      <c r="I37" t="s">
+        <v>250</v>
+      </c>
+      <c r="J37" t="s">
+        <v>286</v>
+      </c>
+      <c r="K37" t="s">
+        <v>322</v>
+      </c>
+      <c r="L37" t="s">
+        <v>850</v>
+      </c>
+      <c r="O37" t="s">
+        <v>372</v>
+      </c>
+      <c r="P37" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>444</v>
+      </c>
+      <c r="R37" t="s">
+        <v>483</v>
+      </c>
+      <c r="V37" t="s">
+        <v>527</v>
+      </c>
+      <c r="W37" t="s">
+        <v>563</v>
+      </c>
+      <c r="X37" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>638</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>682</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>796</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>718</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="38" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>168</v>
+      </c>
+      <c r="G38" t="s">
+        <v>208</v>
+      </c>
+      <c r="K38" t="s">
+        <v>323</v>
+      </c>
+      <c r="L38" t="s">
+        <v>851</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>445</v>
+      </c>
+      <c r="R38" t="s">
+        <v>484</v>
+      </c>
+      <c r="X38" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>639</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>719</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="39" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39" t="s">
+        <v>210</v>
+      </c>
+      <c r="K39" t="s">
+        <v>325</v>
+      </c>
+      <c r="L39" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>446</v>
+      </c>
+      <c r="R39" t="s">
+        <v>485</v>
+      </c>
+      <c r="X39" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>640</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>720</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="40" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>170</v>
+      </c>
+      <c r="G40" t="s">
+        <v>209</v>
+      </c>
+      <c r="K40" t="s">
+        <v>324</v>
+      </c>
+      <c r="L40" t="s">
+        <v>852</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>447</v>
+      </c>
+      <c r="R40" t="s">
+        <v>486</v>
+      </c>
+      <c r="X40" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>641</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>721</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>760</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358224D9-BB9A-AB44-B140-5BCBCA480380}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6">
+        <v>-0.59</v>
+      </c>
+      <c r="C2" s="6">
+        <v>-0.97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6">
+        <v>-0.99</v>
+      </c>
+      <c r="C3" s="6">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6">
+        <v>-1.9</v>
+      </c>
+      <c r="C4" s="6">
+        <v>-2.31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6">
+        <v>-0.98</v>
+      </c>
+      <c r="C5" s="6">
+        <v>-1.52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6">
+        <v>-2.27</v>
+      </c>
+      <c r="C6" s="6">
+        <v>-2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6">
+        <v>-1.89</v>
+      </c>
+      <c r="C7" s="6">
+        <v>-2.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6">
+        <v>-0.27</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-0.94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6">
+        <v>-2.2200000000000002</v>
+      </c>
+      <c r="C9" s="6">
+        <v>-1.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6">
+        <v>-2.5299999999999998</v>
+      </c>
+      <c r="C10" s="6">
+        <v>-1.94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6">
+        <v>-2.5</v>
+      </c>
+      <c r="C11" s="6">
+        <v>-2.39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6">
+        <v>-2.81</v>
+      </c>
+      <c r="C12" s="6">
+        <v>-2.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B51A1CE7-3091-5240-8FD4-8D15CCE79B80}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -755,159 +6872,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358224D9-BB9A-AB44-B140-5BCBCA480380}">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6">
-        <v>-0.59</v>
-      </c>
-      <c r="C2" s="6">
-        <v>-0.97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6">
-        <v>-0.99</v>
-      </c>
-      <c r="C3" s="6">
-        <v>-0.59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6">
-        <v>-1.9</v>
-      </c>
-      <c r="C4" s="6">
-        <v>-2.31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="6">
-        <v>-0.98</v>
-      </c>
-      <c r="C5" s="6">
-        <v>-1.52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6">
-        <v>-2.27</v>
-      </c>
-      <c r="C6" s="6">
-        <v>-2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6">
-        <v>-1.89</v>
-      </c>
-      <c r="C7" s="6">
-        <v>-2.16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="6">
-        <v>-0.27</v>
-      </c>
-      <c r="C8" s="6">
-        <v>-0.94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6">
-        <v>-2.2200000000000002</v>
-      </c>
-      <c r="C9" s="6">
-        <v>-1.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6">
-        <v>-2.5299999999999998</v>
-      </c>
-      <c r="C10" s="6">
-        <v>-1.94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6">
-        <v>-2.5</v>
-      </c>
-      <c r="C11" s="6">
-        <v>-2.39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6">
-        <v>-2.81</v>
-      </c>
-      <c r="C12" s="6">
-        <v>-2.95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617BFE61-0606-BF40-9E68-70BD2AE931BD}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18:J19"/>
+    <sheetView topLeftCell="D17" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
